--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_11_Jedi_D6_100K.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_11_Jedi_D6_100K.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{67B66527-06EC-450C-A35E-AAB79C266E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{9BF08EBD-CAB7-4F2C-85DC-3787B370400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -20,28 +20,28 @@
     <sheet name="comments" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AE$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AE$109</definedName>
     <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
     <definedName name="Z_1F35143E_328B_4EDC_927C_C18A57070EA0_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
-    <definedName name="Z_4BA09E17_24A5_4F6D_8CB6_7B3DF9B00FDE_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$114</definedName>
-    <definedName name="Z_C0A805CE_8E4A_464E_8465_22192DA32AD3_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$114</definedName>
-    <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$114</definedName>
+    <definedName name="Z_4BA09E17_24A5_4F6D_8CB6_7B3DF9B00FDE_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$109</definedName>
+    <definedName name="Z_C0A805CE_8E4A_464E_8465_22192DA32AD3_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$109</definedName>
+    <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$109</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
+    <customWorkbookView name="Jeffrey Ye - Personal View" guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Xuan Gao - Personal View" guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
+    <customWorkbookView name="Qiyang Xie - Personal View" guid="{C0A805CE-8E4A-464E-8465-22192DA32AD3}" mergeInterval="0" personalView="1" xWindow="2281" yWindow="209" windowWidth="1440" windowHeight="759" activeSheetId="1"/>
     <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="Qiyang Xie - Personal View" guid="{C0A805CE-8E4A-464E-8465-22192DA32AD3}" mergeInterval="0" personalView="1" xWindow="2281" yWindow="209" windowWidth="1440" windowHeight="759" activeSheetId="1"/>
-    <customWorkbookView name="Xuan Gao - Personal View" guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
-    <customWorkbookView name="Jeffrey Ye - Personal View" guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="391">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -1117,9 +1117,6 @@
     <t>00_primitive/06_DDR/20_ODDRX2DQS_30_mddrx2_r</t>
   </si>
   <si>
-    <t>00_primitive/06_DDR/21_ODDRX4_26_gddrx4</t>
-  </si>
-  <si>
     <t>00_primitive/06_DDR/22_ODDRX4DQ</t>
   </si>
   <si>
@@ -1132,9 +1129,6 @@
     <t>00_primitive/06_DDR/25_OSHX2_31_mddrx2_oshx2</t>
   </si>
   <si>
-    <t>00_primitive/06_DDR/26_OSHX4_31_mddrx4_oshx4</t>
-  </si>
-  <si>
     <t>00_primitive/06_DDR/27_TSHX2DQ_14_mddrx2</t>
   </si>
   <si>
@@ -1208,15 +1202,6 @@
   </si>
   <si>
     <t>00_primitive/05_IObuffer/16_SEIO18A</t>
-  </si>
-  <si>
-    <t>00_primitive/06_DDR/31_OUTDELAYA_mddrx4_lpddr4_T_write</t>
-  </si>
-  <si>
-    <t>00_primitive/06_DDR/32_OUTDELAYB_mddrx4_lpddr4_T_write</t>
-  </si>
-  <si>
-    <t>00_primitive/06_DDR/33_DQSBUF_IVREF_mddrx4_lpddr4_T_write</t>
   </si>
   <si>
     <t>00_primitive/08_Complex/08_PCIELL</t>
@@ -2546,76 +2531,49 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2635,17 +2593,44 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -5235,96 +5220,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EB4F07A0-CADA-4D20-AE8A-B16D7931FF68}" diskRevisions="1" revisionId="213" version="12">
-  <header guid="{23F1C452-CDC6-497B-AEDD-463530C3E0C7}" dateTime="2022-10-24T11:13:01" maxSheetId="5" userName="Jason Wang" r:id="rId1">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1344F887-443F-46C7-993D-8F0E69986F9D}" dateTime="2022-10-24T11:13:34" maxSheetId="5" userName="Jason Wang" r:id="rId2" minRId="1" maxRId="2">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5713AEE3-ADB7-4DB9-9239-F321CDC42098}" dateTime="2022-10-24T11:14:06" maxSheetId="5" userName="Jason Wang" r:id="rId3" minRId="3">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8C1AD846-60AD-4949-BD53-4E8A6AAF7BE8}" dateTime="2022-10-24T11:14:12" maxSheetId="5" userName="Jason Wang" r:id="rId4" minRId="4">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1309079F-DAE1-4A8D-A37E-830E90180367}" dateTime="2022-10-24T13:45:42" maxSheetId="5" userName="Jason Wang" r:id="rId5" minRId="5">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DE949DCF-27B1-4C75-BBE6-FE98A055FC98}" dateTime="2022-10-25T09:44:06" maxSheetId="5" userName="Jason Wang" r:id="rId6" minRId="7" maxRId="121">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0481FF83-CCF3-4317-BD84-08B12DCA763A}" dateTime="2022-10-25T09:45:45" maxSheetId="5" userName="Jason Wang" r:id="rId7" minRId="122" maxRId="200">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{55006DC6-629E-4D90-8DC3-7DBF74845CC5}" dateTime="2022-10-25T09:46:18" maxSheetId="5" userName="Jason Wang" r:id="rId8" minRId="201" maxRId="204">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9949E26F-485E-4AB3-BED7-60034B86CB06}" dateTime="2022-10-25T11:07:22" maxSheetId="5" userName="Jason Wang" r:id="rId9" minRId="205">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C301985B-B626-439B-8D08-ADB094F41709}" dateTime="2022-10-25T11:07:46" maxSheetId="5" userName="Jason Wang" r:id="rId10" minRId="206">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F4679541-DFEB-41C6-BAD5-EC34D4F5AC83}" dateTime="2022-10-25T11:08:05" maxSheetId="5" userName="Jason Wang" r:id="rId11" minRId="207">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{EB4F07A0-CADA-4D20-AE8A-B16D7931FF68}" dateTime="2022-10-25T11:08:50" maxSheetId="5" userName="Jason Wang" r:id="rId12" minRId="208" maxRId="213">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AF53F251-F23B-48D2-B8DB-01D19DF11292}" diskRevisions="1" revisionId="244" version="13">
+  <header guid="{AF53F251-F23B-48D2-B8DB-01D19DF11292}" dateTime="2023-10-11T19:36:22" maxSheetId="5" userName="Jason Wang" r:id="rId13" minRId="214" maxRId="244">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -5335,2609 +5232,422 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="206" sId="2">
-    <oc r="AE75" t="inlineStr">
-      <is>
-        <t>sim</t>
-      </is>
-    </oc>
-    <nc r="AE75" t="inlineStr">
-      <is>
-        <t>impl</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="207" sId="2">
-    <oc r="AE83" t="inlineStr">
-      <is>
-        <t>sim</t>
-      </is>
-    </oc>
-    <nc r="AE83" t="inlineStr">
-      <is>
-        <t>impl</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="208" sId="2">
-    <oc r="AE85" t="inlineStr">
-      <is>
-        <t>sim</t>
-      </is>
-    </oc>
-    <nc r="AE85" t="inlineStr">
-      <is>
-        <t>impl</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="209" sId="2">
-    <oc r="AE86" t="inlineStr">
-      <is>
-        <t>sim</t>
-      </is>
-    </oc>
-    <nc r="AE86" t="inlineStr">
-      <is>
-        <t>impl</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="210" sId="2">
-    <oc r="AE90" t="inlineStr">
-      <is>
-        <t>sim</t>
-      </is>
-    </oc>
-    <nc r="AE90" t="inlineStr">
-      <is>
-        <t>impl</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="211" sId="2">
-    <oc r="AE91" t="inlineStr">
-      <is>
-        <t>sim</t>
-      </is>
-    </oc>
-    <nc r="AE91" t="inlineStr">
-      <is>
-        <t>impl</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="212" sId="2">
-    <oc r="AE92" t="inlineStr">
-      <is>
-        <t>sim</t>
-      </is>
-    </oc>
-    <nc r="AE92" t="inlineStr">
-      <is>
-        <t>impl</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="213" sId="2">
-    <oc r="AE93" t="inlineStr">
-      <is>
-        <t>sim</t>
-      </is>
-    </oc>
-    <nc r="AE93" t="inlineStr">
-      <is>
-        <t>impl</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="1" sId="2" ref="A137:XFD137" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A137:XFD137" start="0" length="0">
+  <rrc rId="214" sId="2" ref="A84:XFD84" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A84:XFD84" start="0" length="0">
       <dxf>
         <numFmt numFmtId="30" formatCode="@"/>
         <protection locked="0"/>
       </dxf>
     </rfmt>
     <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A137">
-        <v>135</v>
+      <nc r="A84">
+        <v>82</v>
       </nc>
     </rcc>
     <rcc rId="0" sId="2">
-      <nc r="E137" t="inlineStr">
+      <nc r="E84" t="inlineStr">
         <is>
-          <t>00_primitive/08_Complex/12_CRE</t>
+          <t>00_primitive/06_DDR/21_ODDRX4_26_gddrx4</t>
         </is>
       </nc>
     </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="H137" t="inlineStr">
-        <is>
-          <t>IP Not started</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L137" start="0" length="0">
+    <rfmt sheetId="2" sqref="L84" start="0" length="0">
       <dxf>
         <numFmt numFmtId="0" formatCode="General"/>
       </dxf>
     </rfmt>
     <rcc rId="0" sId="2">
-      <nc r="M137" t="inlineStr">
-        <is>
-          <t>timeout = 36000</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="S137" t="inlineStr">
+      <nc r="S84" t="inlineStr">
         <is>
           <t>primitive</t>
         </is>
       </nc>
     </rcc>
     <rcc rId="0" sId="2">
-      <nc r="AE137" t="inlineStr">
+      <nc r="AE84" t="inlineStr">
         <is>
           <t>sim</t>
         </is>
       </nc>
     </rcc>
   </rrc>
-  <rcc rId="2" sId="2" numFmtId="30">
-    <oc r="A137">
-      <v>136</v>
-    </oc>
-    <nc r="A137" t="inlineStr">
-      <is>
-        <t>135</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="3" sId="1">
-    <oc r="B3" t="inlineStr">
-      <is>
-        <t>silicon_11_Jedi_D6_100K</t>
-      </is>
-    </oc>
-    <nc r="B3" t="inlineStr">
-      <is>
-        <t>silicon_11_Jedi_D6_100K_v1.00</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="4" sId="1">
-    <oc r="B10" t="inlineStr">
-      <is>
-        <t>group=rna_regression_group</t>
-      </is>
-    </oc>
-    <nc r="B10"/>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="5" sId="1">
-    <oc r="B8" t="inlineStr">
-      <is>
-        <t>radiant=sd_ng2022_1.217</t>
-      </is>
-    </oc>
-    <nc r="B8" t="inlineStr">
-      <is>
-        <t>radiant=ng2022</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="delete"/>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>case!$A$2:$AE$137</formula>
-    <oldFormula>case!$A$2:$AE$137</oldFormula>
-  </rdn>
-  <rcv guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="7" sId="2" ref="A134:XFD134" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A134:XFD134" start="0" length="0">
+  <rrc rId="215" sId="2" ref="A88:XFD88" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A88:XFD88" start="0" length="0">
       <dxf>
         <numFmt numFmtId="30" formatCode="@"/>
         <protection locked="0"/>
       </dxf>
     </rfmt>
     <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A134">
-        <v>132</v>
+      <nc r="A88">
+        <v>87</v>
       </nc>
     </rcc>
     <rcc rId="0" sId="2">
-      <nc r="E134" t="inlineStr">
+      <nc r="E88" t="inlineStr">
         <is>
-          <t>00_primitive/08_Complex/09_PCIELL_CORE</t>
+          <t>00_primitive/06_DDR/26_OSHX4_31_mddrx4_oshx4</t>
         </is>
       </nc>
     </rcc>
-    <rfmt sheetId="2" sqref="L134" start="0" length="0">
+    <rfmt sheetId="2" sqref="L88" start="0" length="0">
       <dxf>
         <numFmt numFmtId="0" formatCode="General"/>
       </dxf>
     </rfmt>
     <rcc rId="0" sId="2">
-      <nc r="S134" t="inlineStr">
+      <nc r="S88" t="inlineStr">
         <is>
           <t>primitive</t>
         </is>
       </nc>
     </rcc>
     <rcc rId="0" sId="2">
-      <nc r="AE134" t="inlineStr">
+      <nc r="AE88" t="inlineStr">
         <is>
-          <t>impl</t>
+          <t>sim</t>
         </is>
       </nc>
     </rcc>
   </rrc>
-  <rrc rId="8" sId="2" ref="A121:XFD121" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A121:XFD121" start="0" length="0">
+  <rrc rId="216" sId="2" ref="A92:XFD92" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A92:XFD92" start="0" length="0">
       <dxf>
         <numFmt numFmtId="30" formatCode="@"/>
         <protection locked="0"/>
       </dxf>
     </rfmt>
     <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A121">
-        <v>119</v>
+      <nc r="A92">
+        <v>92</v>
       </nc>
     </rcc>
     <rcc rId="0" sId="2">
-      <nc r="E121" t="inlineStr">
+      <nc r="E92" t="inlineStr">
         <is>
-          <t>00_primitive/07_Misc/08_CONFIG_WDT_CORE</t>
+          <t>00_primitive/06_DDR/31_OUTDELAYA_mddrx4_lpddr4_T_write</t>
         </is>
       </nc>
     </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="H121" t="inlineStr">
-        <is>
-          <t>don't update IP</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L121" start="0" length="0">
+    <rfmt sheetId="2" sqref="L92" start="0" length="0">
       <dxf>
         <numFmt numFmtId="0" formatCode="General"/>
       </dxf>
     </rfmt>
     <rcc rId="0" sId="2">
-      <nc r="S121" t="inlineStr">
+      <nc r="S92" t="inlineStr">
         <is>
           <t>primitive</t>
         </is>
       </nc>
     </rcc>
     <rcc rId="0" sId="2">
-      <nc r="AE121" t="inlineStr">
+      <nc r="AE92" t="inlineStr">
         <is>
-          <t>impl</t>
+          <t>sim</t>
         </is>
       </nc>
     </rcc>
   </rrc>
-  <rrc rId="9" sId="2" ref="A87:XFD87" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A87:XFD87" start="0" length="0">
+  <rrc rId="217" sId="2" ref="A92:XFD92" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A92:XFD92" start="0" length="0">
       <dxf>
         <numFmt numFmtId="30" formatCode="@"/>
         <protection locked="0"/>
       </dxf>
     </rfmt>
     <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A87">
-        <v>85</v>
+      <nc r="A92">
+        <v>93</v>
       </nc>
     </rcc>
     <rcc rId="0" sId="2">
-      <nc r="E87" t="inlineStr">
+      <nc r="E92" t="inlineStr">
         <is>
-          <t>00_primitive/05_IObuffer/19_SEIO33_CORE</t>
+          <t>00_primitive/06_DDR/32_OUTDELAYB_mddrx4_lpddr4_T_write</t>
         </is>
       </nc>
     </rcc>
-    <rfmt sheetId="2" sqref="L87" start="0" length="0">
+    <rfmt sheetId="2" sqref="L92" start="0" length="0">
       <dxf>
         <numFmt numFmtId="0" formatCode="General"/>
       </dxf>
     </rfmt>
     <rcc rId="0" sId="2">
-      <nc r="S87" t="inlineStr">
+      <nc r="S92" t="inlineStr">
         <is>
           <t>primitive</t>
         </is>
       </nc>
     </rcc>
     <rcc rId="0" sId="2">
-      <nc r="AE87" t="inlineStr">
+      <nc r="AE92" t="inlineStr">
         <is>
-          <t>impl</t>
+          <t>sim</t>
         </is>
       </nc>
     </rcc>
   </rrc>
-  <rrc rId="10" sId="2" ref="A85:XFD85" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A85:XFD85" start="0" length="0">
+  <rrc rId="218" sId="2" ref="A92:XFD92" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A92:XFD92" start="0" length="0">
       <dxf>
         <numFmt numFmtId="30" formatCode="@"/>
         <protection locked="0"/>
       </dxf>
     </rfmt>
     <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A85">
-        <v>83</v>
+      <nc r="A92">
+        <v>94</v>
       </nc>
     </rcc>
     <rcc rId="0" sId="2">
-      <nc r="E85" t="inlineStr">
+      <nc r="E92" t="inlineStr">
         <is>
-          <t>00_primitive/05_IObuffer/17_SEIO18A_CORE</t>
+          <t>00_primitive/06_DDR/33_DQSBUF_IVREF_mddrx4_lpddr4_T_write</t>
         </is>
       </nc>
     </rcc>
-    <rfmt sheetId="2" sqref="L85" start="0" length="0">
+    <rfmt sheetId="2" sqref="L92" start="0" length="0">
       <dxf>
         <numFmt numFmtId="0" formatCode="General"/>
       </dxf>
     </rfmt>
     <rcc rId="0" sId="2">
-      <nc r="S85" t="inlineStr">
+      <nc r="S92" t="inlineStr">
         <is>
           <t>primitive</t>
         </is>
       </nc>
     </rcc>
     <rcc rId="0" sId="2">
-      <nc r="AE85" t="inlineStr">
-        <is>
-          <t>impl</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="11" sId="2" ref="A83:XFD83" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A83:XFD83" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A83">
-        <v>81</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E83" t="inlineStr">
-        <is>
-          <t>00_primitive/05_IObuffer/15_REG18_CORE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L83" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S83" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE83" t="inlineStr">
+      <nc r="AE92" t="inlineStr">
         <is>
           <t>sim</t>
         </is>
       </nc>
     </rcc>
   </rrc>
-  <rrc rId="12" sId="2" ref="A77:XFD77" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A77:XFD77" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A77">
-        <v>75</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E77" t="inlineStr">
-        <is>
-          <t>00_primitive/05_IObuffer/05_DIFFIO18A_CORE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L77" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S77" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE77" t="inlineStr">
-        <is>
-          <t>impl</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="13" sId="2" ref="A55:XFD55" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A55:XFD55" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A55">
-        <v>53</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E55" t="inlineStr">
-        <is>
-          <t>00_primitive/03_sysDSP/01_ACC54_CORE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L55" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S55" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE55" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="14" sId="2" ref="A36:XFD36" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A36:XFD36" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A36">
-        <v>34</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E36" t="inlineStr">
-        <is>
-          <t>00_primitive/01_clock/13_PLL_CORE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L36" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="O36" t="inlineStr">
-        <is>
-          <t>cmd = --run-ipgen</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="S36" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE36" t="inlineStr">
-        <is>
-          <t>impl</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="15" sId="2" ref="A32:XFD32" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A32:XFD32" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A32">
-        <v>30</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E32" t="inlineStr">
-        <is>
-          <t>00_primitive/01_clock/09_OSC_CORE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L32" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S32" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE32" t="inlineStr">
-        <is>
-          <t>impl</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="16" sId="2" ref="A29:XFD29" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A29:XFD29" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A29">
-        <v>27</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E29" t="inlineStr">
-        <is>
-          <t>00_primitive/01_clock/06_ECLKSYNC_CORE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L29" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S29" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE29" t="inlineStr">
-        <is>
-          <t>impl</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="17" sId="2" ref="A27:XFD27" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A27:XFD27" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A27">
-        <v>25</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E27" t="inlineStr">
-        <is>
-          <t>00_primitive/01_clock/04_ECLKDIV_CORE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L27" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S27" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE27" t="inlineStr">
-        <is>
-          <t>impl</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="18" sId="2" ref="A23:XFD23" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A23:XFD23" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A23">
-        <v>21</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E23" t="inlineStr">
-        <is>
-          <t>00_primitive/01_clock/00_CONFIG_CLKRST_CORE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L23" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S23" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE23" t="inlineStr">
-        <is>
-          <t>impl</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="19" sId="2" ref="A46:XFD46" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A46:XFD46" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A46">
-        <v>49</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E46" t="inlineStr">
-        <is>
-          <t>00_primitive/02_sysMem/17_SP16K_MODE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L46" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S46" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE46" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="20" sId="2" ref="A43:XFD43" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A43:XFD43" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A43">
-        <v>46</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E43" t="inlineStr">
-        <is>
-          <t>00_primitive/02_sysMem/14_PDPSC16K_MODE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L43" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S43" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE43" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="21" sId="2" ref="A41:XFD41" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A41:XFD41" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A41">
-        <v>44</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E41" t="inlineStr">
-        <is>
-          <t>00_primitive/02_sysMem/12_PDP16K_MODE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L41" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S41" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE41" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="22" sId="2" ref="A38:XFD38" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A38:XFD38" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A38">
-        <v>41</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E38" t="inlineStr">
-        <is>
-          <t>00_primitive/02_sysMem/08_FIFO16K_MODE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L38" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S38" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE38" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="23" sId="2" ref="A33:XFD33" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A33:XFD33" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A33">
-        <v>36</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E33" t="inlineStr">
-        <is>
-          <t>00_primitive/02_sysMem/01_DP16K_MODE</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L33" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S33" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE33" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rcc rId="24" sId="2" numFmtId="30">
-    <oc r="A23">
-      <v>22</v>
-    </oc>
-    <nc r="A23">
-      <v>21</v>
-    </nc>
-  </rcc>
-  <rcc rId="25" sId="2" numFmtId="30">
-    <oc r="A24">
-      <v>23</v>
-    </oc>
-    <nc r="A24">
-      <v>22</v>
-    </nc>
-  </rcc>
-  <rcc rId="26" sId="2" numFmtId="30">
-    <oc r="A25">
-      <v>24</v>
-    </oc>
-    <nc r="A25">
-      <v>23</v>
-    </nc>
-  </rcc>
-  <rcc rId="27" sId="2" numFmtId="30">
-    <oc r="A26">
-      <v>26</v>
-    </oc>
-    <nc r="A26">
-      <v>24</v>
-    </nc>
-  </rcc>
-  <rcc rId="28" sId="2" numFmtId="30">
-    <oc r="A27">
-      <v>28</v>
-    </oc>
-    <nc r="A27">
-      <v>25</v>
-    </nc>
-  </rcc>
-  <rcc rId="29" sId="2" numFmtId="30">
-    <oc r="A28">
-      <v>29</v>
-    </oc>
-    <nc r="A28">
-      <v>26</v>
-    </nc>
-  </rcc>
-  <rcc rId="30" sId="2" numFmtId="30">
-    <oc r="A29">
-      <v>31</v>
-    </oc>
-    <nc r="A29">
-      <v>27</v>
-    </nc>
-  </rcc>
-  <rcc rId="31" sId="2" numFmtId="30">
-    <oc r="A30">
-      <v>32</v>
-    </oc>
-    <nc r="A30">
-      <v>28</v>
-    </nc>
-  </rcc>
-  <rcc rId="32" sId="2" numFmtId="30">
-    <oc r="A31">
-      <v>33</v>
-    </oc>
-    <nc r="A31">
-      <v>29</v>
-    </nc>
-  </rcc>
-  <rcc rId="33" sId="2" numFmtId="30">
-    <oc r="A32">
-      <v>35</v>
-    </oc>
-    <nc r="A32">
-      <v>30</v>
-    </nc>
-  </rcc>
-  <rcc rId="34" sId="2" numFmtId="30">
-    <oc r="A33">
-      <v>37</v>
-    </oc>
-    <nc r="A33">
-      <v>31</v>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="2" numFmtId="30">
-    <oc r="A34">
-      <v>38</v>
-    </oc>
-    <nc r="A34">
-      <v>32</v>
-    </nc>
-  </rcc>
-  <rcc rId="36" sId="2" numFmtId="30">
-    <oc r="A35">
-      <v>39</v>
-    </oc>
-    <nc r="A35">
-      <v>33</v>
-    </nc>
-  </rcc>
-  <rcc rId="37" sId="2" numFmtId="30">
-    <oc r="A36">
-      <v>40</v>
-    </oc>
-    <nc r="A36">
-      <v>34</v>
-    </nc>
-  </rcc>
-  <rcc rId="38" sId="2" numFmtId="30">
-    <oc r="A37">
-      <v>42</v>
-    </oc>
-    <nc r="A37">
-      <v>35</v>
-    </nc>
-  </rcc>
-  <rcc rId="39" sId="2" numFmtId="30">
-    <oc r="A38">
-      <v>43</v>
-    </oc>
-    <nc r="A38">
-      <v>36</v>
-    </nc>
-  </rcc>
-  <rcc rId="40" sId="2" numFmtId="30">
-    <oc r="A39">
-      <v>45</v>
-    </oc>
-    <nc r="A39">
-      <v>37</v>
-    </nc>
-  </rcc>
-  <rcc rId="41" sId="2" numFmtId="30">
-    <oc r="A40">
-      <v>47</v>
-    </oc>
-    <nc r="A40">
-      <v>38</v>
-    </nc>
-  </rcc>
-  <rcc rId="42" sId="2" numFmtId="30">
-    <oc r="A41">
-      <v>48</v>
-    </oc>
-    <nc r="A41">
-      <v>39</v>
-    </nc>
-  </rcc>
-  <rcc rId="43" sId="2" numFmtId="30">
-    <oc r="A42">
-      <v>50</v>
-    </oc>
-    <nc r="A42">
-      <v>40</v>
-    </nc>
-  </rcc>
-  <rcc rId="44" sId="2" numFmtId="30">
-    <oc r="A43">
-      <v>51</v>
-    </oc>
-    <nc r="A43">
-      <v>41</v>
-    </nc>
-  </rcc>
-  <rcc rId="45" sId="2" numFmtId="30">
-    <oc r="A44">
-      <v>52</v>
-    </oc>
-    <nc r="A44">
-      <v>42</v>
-    </nc>
-  </rcc>
-  <rcc rId="46" sId="2" numFmtId="30">
-    <oc r="A45">
-      <v>54</v>
-    </oc>
-    <nc r="A45">
-      <v>43</v>
-    </nc>
-  </rcc>
-  <rcc rId="47" sId="2" numFmtId="30">
-    <oc r="A46">
-      <v>55</v>
-    </oc>
-    <nc r="A46">
-      <v>44</v>
-    </nc>
-  </rcc>
-  <rcc rId="48" sId="2" numFmtId="30">
-    <oc r="A47">
-      <v>56</v>
-    </oc>
-    <nc r="A47">
-      <v>45</v>
-    </nc>
-  </rcc>
-  <rcc rId="49" sId="2" numFmtId="30">
-    <oc r="A48">
-      <v>57</v>
-    </oc>
-    <nc r="A48">
-      <v>46</v>
-    </nc>
-  </rcc>
-  <rcc rId="50" sId="2" numFmtId="30">
-    <oc r="A49">
-      <v>58</v>
-    </oc>
-    <nc r="A49">
-      <v>47</v>
-    </nc>
-  </rcc>
-  <rcc rId="51" sId="2" numFmtId="30">
-    <oc r="A50">
-      <v>59</v>
-    </oc>
-    <nc r="A50">
-      <v>48</v>
-    </nc>
-  </rcc>
-  <rcc rId="52" sId="2" numFmtId="30">
-    <oc r="A51">
-      <v>60</v>
-    </oc>
-    <nc r="A51">
-      <v>49</v>
-    </nc>
-  </rcc>
-  <rcc rId="53" sId="2" numFmtId="30">
-    <oc r="A52">
-      <v>61</v>
-    </oc>
-    <nc r="A52">
-      <v>50</v>
-    </nc>
-  </rcc>
-  <rcc rId="54" sId="2" numFmtId="30">
-    <oc r="A53">
-      <v>62</v>
-    </oc>
-    <nc r="A53">
-      <v>51</v>
-    </nc>
-  </rcc>
-  <rcc rId="55" sId="2" numFmtId="30">
-    <oc r="A54">
-      <v>63</v>
-    </oc>
-    <nc r="A54">
-      <v>52</v>
-    </nc>
-  </rcc>
-  <rcc rId="56" sId="2" numFmtId="30">
-    <oc r="A55">
-      <v>64</v>
-    </oc>
-    <nc r="A55">
-      <v>53</v>
-    </nc>
-  </rcc>
-  <rcc rId="57" sId="2" numFmtId="30">
-    <oc r="A56">
-      <v>65</v>
-    </oc>
-    <nc r="A56">
-      <v>54</v>
-    </nc>
-  </rcc>
-  <rcc rId="58" sId="2" numFmtId="30">
-    <oc r="A57">
-      <v>66</v>
-    </oc>
-    <nc r="A57">
-      <v>55</v>
-    </nc>
-  </rcc>
-  <rcc rId="59" sId="2" numFmtId="30">
-    <oc r="A58">
-      <v>67</v>
-    </oc>
-    <nc r="A58">
-      <v>56</v>
-    </nc>
-  </rcc>
-  <rcc rId="60" sId="2" numFmtId="30">
-    <oc r="A59">
-      <v>68</v>
-    </oc>
-    <nc r="A59">
-      <v>57</v>
-    </nc>
-  </rcc>
-  <rcc rId="61" sId="2" numFmtId="30">
-    <oc r="A60">
-      <v>69</v>
-    </oc>
-    <nc r="A60">
-      <v>58</v>
-    </nc>
-  </rcc>
-  <rcc rId="62" sId="2" numFmtId="30">
-    <oc r="A61">
-      <v>70</v>
-    </oc>
-    <nc r="A61">
-      <v>59</v>
-    </nc>
-  </rcc>
-  <rcc rId="63" sId="2" numFmtId="30">
-    <oc r="A62">
-      <v>71</v>
-    </oc>
-    <nc r="A62">
-      <v>60</v>
-    </nc>
-  </rcc>
-  <rcc rId="64" sId="2" numFmtId="30">
-    <oc r="A63">
-      <v>72</v>
-    </oc>
-    <nc r="A63">
-      <v>61</v>
-    </nc>
-  </rcc>
-  <rcc rId="65" sId="2" numFmtId="30">
-    <oc r="A64">
-      <v>73</v>
-    </oc>
-    <nc r="A64">
-      <v>62</v>
-    </nc>
-  </rcc>
-  <rcc rId="66" sId="2" numFmtId="30">
-    <oc r="A65">
-      <v>74</v>
-    </oc>
-    <nc r="A65">
-      <v>63</v>
-    </nc>
-  </rcc>
-  <rcc rId="67" sId="2" numFmtId="30">
-    <oc r="A66">
-      <v>76</v>
-    </oc>
-    <nc r="A66">
-      <v>64</v>
-    </nc>
-  </rcc>
-  <rcc rId="68" sId="2" numFmtId="30">
-    <oc r="A67">
-      <v>77</v>
-    </oc>
-    <nc r="A67">
-      <v>65</v>
-    </nc>
-  </rcc>
-  <rcc rId="69" sId="2" numFmtId="30">
-    <oc r="A68">
-      <v>78</v>
-    </oc>
-    <nc r="A68">
-      <v>66</v>
-    </nc>
-  </rcc>
-  <rcc rId="70" sId="2" numFmtId="30">
-    <oc r="A69">
-      <v>79</v>
-    </oc>
-    <nc r="A69">
-      <v>67</v>
-    </nc>
-  </rcc>
-  <rcc rId="71" sId="2" numFmtId="30">
-    <oc r="A70">
-      <v>80</v>
-    </oc>
-    <nc r="A70">
-      <v>68</v>
-    </nc>
-  </rcc>
-  <rcc rId="72" sId="2" numFmtId="30">
-    <oc r="A71">
-      <v>82</v>
-    </oc>
-    <nc r="A71">
-      <v>69</v>
-    </nc>
-  </rcc>
-  <rcc rId="73" sId="2" numFmtId="30">
-    <oc r="A72">
-      <v>84</v>
-    </oc>
-    <nc r="A72">
-      <v>70</v>
-    </nc>
-  </rcc>
-  <rcc rId="74" sId="2" numFmtId="30">
-    <oc r="A73">
-      <v>86</v>
-    </oc>
-    <nc r="A73">
-      <v>71</v>
-    </nc>
-  </rcc>
-  <rcc rId="75" sId="2" numFmtId="30">
-    <oc r="A74">
-      <v>87</v>
-    </oc>
-    <nc r="A74">
-      <v>72</v>
-    </nc>
-  </rcc>
-  <rcc rId="76" sId="2" numFmtId="30">
-    <oc r="A75">
-      <v>88</v>
-    </oc>
-    <nc r="A75">
-      <v>73</v>
-    </nc>
-  </rcc>
-  <rcc rId="77" sId="2" numFmtId="30">
-    <oc r="A76">
-      <v>89</v>
-    </oc>
-    <nc r="A76">
-      <v>74</v>
-    </nc>
-  </rcc>
-  <rcc rId="78" sId="2" numFmtId="30">
-    <oc r="A77">
-      <v>90</v>
-    </oc>
-    <nc r="A77">
-      <v>75</v>
-    </nc>
-  </rcc>
-  <rcc rId="79" sId="2" numFmtId="30">
-    <oc r="A78">
-      <v>91</v>
-    </oc>
-    <nc r="A78">
-      <v>76</v>
-    </nc>
-  </rcc>
-  <rcc rId="80" sId="2" numFmtId="30">
-    <oc r="A79">
-      <v>92</v>
-    </oc>
-    <nc r="A79">
-      <v>77</v>
-    </nc>
-  </rcc>
-  <rcc rId="81" sId="2" numFmtId="30">
-    <oc r="A80">
-      <v>93</v>
-    </oc>
-    <nc r="A80">
-      <v>78</v>
-    </nc>
-  </rcc>
-  <rcc rId="82" sId="2" numFmtId="30">
-    <oc r="A81">
-      <v>94</v>
-    </oc>
-    <nc r="A81">
-      <v>79</v>
-    </nc>
-  </rcc>
-  <rcc rId="83" sId="2" numFmtId="30">
-    <oc r="A82">
-      <v>95</v>
-    </oc>
-    <nc r="A82">
-      <v>80</v>
-    </nc>
-  </rcc>
-  <rcc rId="84" sId="2" numFmtId="30">
-    <oc r="A83">
-      <v>96</v>
-    </oc>
-    <nc r="A83">
-      <v>81</v>
-    </nc>
-  </rcc>
-  <rcc rId="85" sId="2" numFmtId="30">
+  <rcc rId="219" sId="2" numFmtId="30">
     <oc r="A84">
-      <v>97</v>
+      <v>83</v>
     </oc>
     <nc r="A84">
       <v>82</v>
     </nc>
   </rcc>
-  <rcc rId="86" sId="2" numFmtId="30">
+  <rcc rId="220" sId="2" numFmtId="30">
     <oc r="A85">
-      <v>98</v>
+      <v>84</v>
     </oc>
     <nc r="A85">
       <v>83</v>
     </nc>
   </rcc>
-  <rcc rId="87" sId="2" numFmtId="30">
+  <rcc rId="221" sId="2" numFmtId="30">
     <oc r="A86">
-      <v>99</v>
+      <v>85</v>
     </oc>
     <nc r="A86">
       <v>84</v>
     </nc>
   </rcc>
-  <rcc rId="88" sId="2" numFmtId="30">
+  <rcc rId="222" sId="2" numFmtId="30">
     <oc r="A87">
-      <v>100</v>
+      <v>86</v>
     </oc>
     <nc r="A87">
       <v>85</v>
     </nc>
   </rcc>
-  <rcc rId="89" sId="2" numFmtId="30">
+  <rcc rId="223" sId="2" numFmtId="30">
     <oc r="A88">
-      <v>101</v>
+      <v>88</v>
     </oc>
     <nc r="A88">
       <v>86</v>
     </nc>
   </rcc>
-  <rcc rId="90" sId="2" numFmtId="30">
+  <rcc rId="224" sId="2" numFmtId="30">
     <oc r="A89">
-      <v>102</v>
+      <v>89</v>
     </oc>
     <nc r="A89">
       <v>87</v>
     </nc>
   </rcc>
-  <rcc rId="91" sId="2" numFmtId="30">
+  <rcc rId="225" sId="2" numFmtId="30">
     <oc r="A90">
-      <v>103</v>
+      <v>90</v>
     </oc>
     <nc r="A90">
       <v>88</v>
     </nc>
   </rcc>
-  <rcc rId="92" sId="2" numFmtId="30">
+  <rcc rId="226" sId="2" numFmtId="30">
     <oc r="A91">
-      <v>104</v>
+      <v>91</v>
     </oc>
     <nc r="A91">
       <v>89</v>
     </nc>
   </rcc>
-  <rcc rId="93" sId="2" numFmtId="30">
+  <rcc rId="227" sId="2" numFmtId="30">
     <oc r="A92">
-      <v>105</v>
+      <v>95</v>
     </oc>
     <nc r="A92">
       <v>90</v>
     </nc>
   </rcc>
-  <rcc rId="94" sId="2" numFmtId="30">
+  <rcc rId="228" sId="2" numFmtId="30">
     <oc r="A93">
-      <v>106</v>
+      <v>96</v>
     </oc>
     <nc r="A93">
       <v>91</v>
     </nc>
   </rcc>
-  <rcc rId="95" sId="2" numFmtId="30">
+  <rcc rId="229" sId="2" numFmtId="30">
     <oc r="A94">
-      <v>107</v>
+      <v>97</v>
     </oc>
     <nc r="A94">
       <v>92</v>
     </nc>
   </rcc>
-  <rcc rId="96" sId="2" numFmtId="30">
+  <rcc rId="230" sId="2" numFmtId="30">
     <oc r="A95">
-      <v>108</v>
+      <v>98</v>
     </oc>
     <nc r="A95">
       <v>93</v>
     </nc>
   </rcc>
-  <rcc rId="97" sId="2" numFmtId="30">
+  <rcc rId="231" sId="2" numFmtId="30">
     <oc r="A96">
-      <v>109</v>
+      <v>99</v>
     </oc>
     <nc r="A96">
       <v>94</v>
     </nc>
   </rcc>
-  <rcc rId="98" sId="2" numFmtId="30">
+  <rcc rId="232" sId="2" numFmtId="30">
     <oc r="A97">
-      <v>110</v>
+      <v>100</v>
     </oc>
     <nc r="A97">
       <v>95</v>
     </nc>
   </rcc>
-  <rcc rId="99" sId="2" numFmtId="30">
+  <rcc rId="233" sId="2" numFmtId="30">
     <oc r="A98">
-      <v>111</v>
+      <v>101</v>
     </oc>
     <nc r="A98">
       <v>96</v>
     </nc>
   </rcc>
-  <rcc rId="100" sId="2" numFmtId="30">
+  <rcc rId="234" sId="2" numFmtId="30">
     <oc r="A99">
-      <v>112</v>
+      <v>102</v>
     </oc>
     <nc r="A99">
       <v>97</v>
     </nc>
   </rcc>
-  <rcc rId="101" sId="2" numFmtId="30">
+  <rcc rId="235" sId="2" numFmtId="30">
     <oc r="A100">
-      <v>113</v>
+      <v>103</v>
     </oc>
     <nc r="A100">
       <v>98</v>
     </nc>
   </rcc>
-  <rcc rId="102" sId="2" numFmtId="30">
+  <rcc rId="236" sId="2" numFmtId="30">
     <oc r="A101">
-      <v>114</v>
+      <v>104</v>
     </oc>
     <nc r="A101">
       <v>99</v>
     </nc>
   </rcc>
-  <rcc rId="103" sId="2" numFmtId="30">
+  <rcc rId="237" sId="2" numFmtId="30">
     <oc r="A102">
-      <v>115</v>
+      <v>105</v>
     </oc>
     <nc r="A102">
       <v>100</v>
     </nc>
   </rcc>
-  <rcc rId="104" sId="2" numFmtId="30">
+  <rcc rId="238" sId="2" numFmtId="30">
     <oc r="A103">
-      <v>116</v>
+      <v>106</v>
     </oc>
     <nc r="A103">
       <v>101</v>
     </nc>
   </rcc>
-  <rcc rId="105" sId="2" numFmtId="30">
+  <rcc rId="239" sId="2" numFmtId="30">
     <oc r="A104">
-      <v>117</v>
+      <v>107</v>
     </oc>
     <nc r="A104">
       <v>102</v>
     </nc>
   </rcc>
-  <rcc rId="106" sId="2" numFmtId="30">
+  <rcc rId="240" sId="2" numFmtId="30">
     <oc r="A105">
-      <v>118</v>
+      <v>108</v>
     </oc>
     <nc r="A105">
       <v>103</v>
     </nc>
   </rcc>
-  <rcc rId="107" sId="2" numFmtId="30">
+  <rcc rId="241" sId="2" numFmtId="30">
     <oc r="A106">
-      <v>120</v>
+      <v>109</v>
     </oc>
     <nc r="A106">
       <v>104</v>
     </nc>
   </rcc>
-  <rcc rId="108" sId="2" numFmtId="30">
+  <rcc rId="242" sId="2" numFmtId="30">
     <oc r="A107">
-      <v>121</v>
+      <v>110</v>
     </oc>
     <nc r="A107">
       <v>105</v>
     </nc>
   </rcc>
-  <rcc rId="109" sId="2" numFmtId="30">
+  <rcc rId="243" sId="2" numFmtId="30">
     <oc r="A108">
-      <v>122</v>
+      <v>111</v>
     </oc>
     <nc r="A108">
       <v>106</v>
     </nc>
   </rcc>
-  <rcc rId="110" sId="2" numFmtId="30">
+  <rcc rId="244" sId="2" numFmtId="30">
     <oc r="A109">
-      <v>123</v>
+      <v>112</v>
     </oc>
     <nc r="A109">
       <v>107</v>
     </nc>
   </rcc>
-  <rcc rId="111" sId="2" numFmtId="30">
-    <oc r="A110">
-      <v>124</v>
-    </oc>
-    <nc r="A110">
-      <v>108</v>
-    </nc>
-  </rcc>
-  <rcc rId="112" sId="2" numFmtId="30">
-    <oc r="A111">
-      <v>125</v>
-    </oc>
-    <nc r="A111">
-      <v>109</v>
-    </nc>
-  </rcc>
-  <rcc rId="113" sId="2" numFmtId="30">
-    <oc r="A112">
-      <v>126</v>
-    </oc>
-    <nc r="A112">
-      <v>110</v>
-    </nc>
-  </rcc>
-  <rcc rId="114" sId="2" numFmtId="30">
-    <oc r="A113">
-      <v>127</v>
-    </oc>
-    <nc r="A113">
-      <v>111</v>
-    </nc>
-  </rcc>
-  <rcc rId="115" sId="2" numFmtId="30">
-    <oc r="A114">
-      <v>128</v>
-    </oc>
-    <nc r="A114">
-      <v>112</v>
-    </nc>
-  </rcc>
-  <rcc rId="116" sId="2" numFmtId="30">
-    <oc r="A115">
-      <v>129</v>
-    </oc>
-    <nc r="A115">
-      <v>113</v>
-    </nc>
-  </rcc>
-  <rcc rId="117" sId="2" numFmtId="30">
-    <oc r="A116">
-      <v>130</v>
-    </oc>
-    <nc r="A116">
-      <v>114</v>
-    </nc>
-  </rcc>
-  <rcc rId="118" sId="2" numFmtId="30">
-    <oc r="A117">
-      <v>131</v>
-    </oc>
-    <nc r="A117">
-      <v>115</v>
-    </nc>
-  </rcc>
-  <rcc rId="119" sId="2" numFmtId="30">
-    <oc r="A118">
-      <v>133</v>
-    </oc>
-    <nc r="A118">
-      <v>116</v>
-    </nc>
-  </rcc>
-  <rcc rId="120" sId="2" numFmtId="30">
-    <oc r="A119">
-      <v>134</v>
-    </oc>
-    <nc r="A119">
-      <v>117</v>
-    </nc>
-  </rcc>
-  <rcc rId="121" sId="2" numFmtId="30">
-    <oc r="A120" t="inlineStr">
-      <is>
-        <t>135</t>
-      </is>
-    </oc>
-    <nc r="A120">
-      <v>118</v>
-    </nc>
-  </rcc>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="122" sId="2" ref="A47:XFD47" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A47:XFD47" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A47">
-        <v>45</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E47" t="inlineStr">
-        <is>
-          <t>00_primitive/03_sysDSP/05_MULT18</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L47" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S47" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE47" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="123" sId="2" ref="A44:XFD44" action="insertRow"/>
-  <rrc rId="124" sId="2" ref="A44:XFD44" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A44:XFD44" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="2" sqref="L44" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="125" sId="2" ref="A44:XFD44" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A44:XFD44" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A44">
-        <v>42</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E44" t="inlineStr">
-        <is>
-          <t>00_primitive/03_sysDSP/00_ACC54</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L44" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S44" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE44" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="126" sId="2" ref="A48:XFD48" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A48:XFD48" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A48">
-        <v>48</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E48" t="inlineStr">
-        <is>
-          <t>00_primitive/03_sysDSP/10_MULT36</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L48" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S48" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE48" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="127" sId="2" ref="A49:XFD49" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A49:XFD49" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A49">
-        <v>50</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E49" t="inlineStr">
-        <is>
-          <t>00_primitive/03_sysDSP/13_MULT9</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L49" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S49" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE49" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="128" sId="2" ref="A57:XFD57" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A57:XFD57" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A57">
-        <v>59</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E57" t="inlineStr">
-        <is>
-          <t>00_primitive/03_sysDSP/23_PREADD9</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L57" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S57" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE57" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="129" sId="2" ref="A65:XFD65" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A65:XFD65" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A65">
-        <v>68</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E65" t="inlineStr">
-        <is>
-          <t>00_primitive/05_IObuffer/14_REG18</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L65" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S65" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE65" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rcc rId="130" sId="2" numFmtId="30">
-    <oc r="A44">
-      <v>43</v>
-    </oc>
-    <nc r="A44">
-      <v>42</v>
-    </nc>
-  </rcc>
-  <rcc rId="131" sId="2" numFmtId="30">
-    <oc r="A45">
-      <v>44</v>
-    </oc>
-    <nc r="A45">
-      <v>43</v>
-    </nc>
-  </rcc>
-  <rcc rId="132" sId="2" numFmtId="30">
-    <oc r="A46">
-      <v>46</v>
-    </oc>
-    <nc r="A46">
-      <v>44</v>
-    </nc>
-  </rcc>
-  <rcc rId="133" sId="2" numFmtId="30">
-    <oc r="A47">
-      <v>47</v>
-    </oc>
-    <nc r="A47">
-      <v>45</v>
-    </nc>
-  </rcc>
-  <rcc rId="134" sId="2" numFmtId="30">
-    <oc r="A48">
-      <v>49</v>
-    </oc>
-    <nc r="A48">
-      <v>46</v>
-    </nc>
-  </rcc>
-  <rcc rId="135" sId="2" numFmtId="30">
-    <oc r="A49">
-      <v>51</v>
-    </oc>
-    <nc r="A49">
-      <v>47</v>
-    </nc>
-  </rcc>
-  <rcc rId="136" sId="2" numFmtId="30">
-    <oc r="A50">
-      <v>52</v>
-    </oc>
-    <nc r="A50">
-      <v>48</v>
-    </nc>
-  </rcc>
-  <rcc rId="137" sId="2" numFmtId="30">
-    <oc r="A51">
-      <v>53</v>
-    </oc>
-    <nc r="A51">
-      <v>49</v>
-    </nc>
-  </rcc>
-  <rcc rId="138" sId="2" numFmtId="30">
-    <oc r="A52">
-      <v>54</v>
-    </oc>
-    <nc r="A52">
-      <v>50</v>
-    </nc>
-  </rcc>
-  <rcc rId="139" sId="2" numFmtId="30">
-    <oc r="A53">
-      <v>55</v>
-    </oc>
-    <nc r="A53">
-      <v>51</v>
-    </nc>
-  </rcc>
-  <rcc rId="140" sId="2" numFmtId="30">
-    <oc r="A54">
-      <v>56</v>
-    </oc>
-    <nc r="A54">
-      <v>52</v>
-    </nc>
-  </rcc>
-  <rcc rId="141" sId="2" numFmtId="30">
-    <oc r="A55">
-      <v>57</v>
-    </oc>
-    <nc r="A55">
-      <v>53</v>
-    </nc>
-  </rcc>
-  <rcc rId="142" sId="2" numFmtId="30">
-    <oc r="A56">
-      <v>58</v>
-    </oc>
-    <nc r="A56">
-      <v>54</v>
-    </nc>
-  </rcc>
-  <rcc rId="143" sId="2" numFmtId="30">
-    <oc r="A57">
-      <v>60</v>
-    </oc>
-    <nc r="A57">
-      <v>55</v>
-    </nc>
-  </rcc>
-  <rcc rId="144" sId="2" numFmtId="30">
-    <oc r="A58">
-      <v>61</v>
-    </oc>
-    <nc r="A58">
-      <v>56</v>
-    </nc>
-  </rcc>
-  <rcc rId="145" sId="2" numFmtId="30">
-    <oc r="A59">
-      <v>62</v>
-    </oc>
-    <nc r="A59">
-      <v>57</v>
-    </nc>
-  </rcc>
-  <rcc rId="146" sId="2" numFmtId="30">
-    <oc r="A60">
-      <v>63</v>
-    </oc>
-    <nc r="A60">
-      <v>58</v>
-    </nc>
-  </rcc>
-  <rcc rId="147" sId="2" numFmtId="30">
-    <oc r="A61">
-      <v>64</v>
-    </oc>
-    <nc r="A61">
-      <v>59</v>
-    </nc>
-  </rcc>
-  <rcc rId="148" sId="2" numFmtId="30">
-    <oc r="A62">
-      <v>65</v>
-    </oc>
-    <nc r="A62">
-      <v>60</v>
-    </nc>
-  </rcc>
-  <rcc rId="149" sId="2" numFmtId="30">
-    <oc r="A63">
-      <v>66</v>
-    </oc>
-    <nc r="A63">
-      <v>61</v>
-    </nc>
-  </rcc>
-  <rcc rId="150" sId="2" numFmtId="30">
-    <oc r="A64">
-      <v>67</v>
-    </oc>
-    <nc r="A64">
-      <v>62</v>
-    </nc>
-  </rcc>
-  <rcc rId="151" sId="2" numFmtId="30">
-    <oc r="A65">
-      <v>69</v>
-    </oc>
-    <nc r="A65">
-      <v>63</v>
-    </nc>
-  </rcc>
-  <rcc rId="152" sId="2" numFmtId="30">
-    <oc r="A66">
-      <v>70</v>
-    </oc>
-    <nc r="A66">
-      <v>64</v>
-    </nc>
-  </rcc>
-  <rcc rId="153" sId="2" numFmtId="30">
-    <oc r="A67">
-      <v>71</v>
-    </oc>
-    <nc r="A67">
-      <v>65</v>
-    </nc>
-  </rcc>
-  <rcc rId="154" sId="2" numFmtId="30">
-    <oc r="A68">
-      <v>72</v>
-    </oc>
-    <nc r="A68">
-      <v>66</v>
-    </nc>
-  </rcc>
-  <rcc rId="155" sId="2" numFmtId="30">
-    <oc r="A69">
-      <v>73</v>
-    </oc>
-    <nc r="A69">
-      <v>67</v>
-    </nc>
-  </rcc>
-  <rcc rId="156" sId="2" numFmtId="30">
-    <oc r="A70">
-      <v>74</v>
-    </oc>
-    <nc r="A70">
-      <v>68</v>
-    </nc>
-  </rcc>
-  <rcc rId="157" sId="2" numFmtId="30">
-    <oc r="A71">
-      <v>75</v>
-    </oc>
-    <nc r="A71">
-      <v>69</v>
-    </nc>
-  </rcc>
-  <rcc rId="158" sId="2" numFmtId="30">
-    <oc r="A72">
-      <v>76</v>
-    </oc>
-    <nc r="A72">
-      <v>70</v>
-    </nc>
-  </rcc>
-  <rcc rId="159" sId="2" numFmtId="30">
-    <oc r="A73">
-      <v>77</v>
-    </oc>
-    <nc r="A73">
-      <v>71</v>
-    </nc>
-  </rcc>
-  <rcc rId="160" sId="2" numFmtId="30">
-    <oc r="A74">
-      <v>78</v>
-    </oc>
-    <nc r="A74">
-      <v>72</v>
-    </nc>
-  </rcc>
-  <rcc rId="161" sId="2" numFmtId="30">
-    <oc r="A75">
-      <v>79</v>
-    </oc>
-    <nc r="A75">
-      <v>73</v>
-    </nc>
-  </rcc>
-  <rcc rId="162" sId="2" numFmtId="30">
-    <oc r="A76">
-      <v>80</v>
-    </oc>
-    <nc r="A76">
-      <v>74</v>
-    </nc>
-  </rcc>
-  <rcc rId="163" sId="2" numFmtId="30">
-    <oc r="A77">
-      <v>81</v>
-    </oc>
-    <nc r="A77">
-      <v>75</v>
-    </nc>
-  </rcc>
-  <rcc rId="164" sId="2" numFmtId="30">
-    <oc r="A78">
-      <v>82</v>
-    </oc>
-    <nc r="A78">
-      <v>76</v>
-    </nc>
-  </rcc>
-  <rcc rId="165" sId="2" numFmtId="30">
-    <oc r="A79">
-      <v>83</v>
-    </oc>
-    <nc r="A79">
-      <v>77</v>
-    </nc>
-  </rcc>
-  <rcc rId="166" sId="2" numFmtId="30">
-    <oc r="A80">
-      <v>84</v>
-    </oc>
-    <nc r="A80">
-      <v>78</v>
-    </nc>
-  </rcc>
-  <rcc rId="167" sId="2" numFmtId="30">
-    <oc r="A81">
-      <v>85</v>
-    </oc>
-    <nc r="A81">
-      <v>79</v>
-    </nc>
-  </rcc>
-  <rcc rId="168" sId="2" numFmtId="30">
-    <oc r="A82">
-      <v>86</v>
-    </oc>
-    <nc r="A82">
-      <v>80</v>
-    </nc>
-  </rcc>
-  <rcc rId="169" sId="2" numFmtId="30">
-    <oc r="A83">
-      <v>87</v>
-    </oc>
-    <nc r="A83">
-      <v>81</v>
-    </nc>
-  </rcc>
-  <rcc rId="170" sId="2" numFmtId="30">
-    <oc r="A84">
-      <v>88</v>
-    </oc>
-    <nc r="A84">
-      <v>82</v>
-    </nc>
-  </rcc>
-  <rcc rId="171" sId="2" numFmtId="30">
-    <oc r="A85">
-      <v>89</v>
-    </oc>
-    <nc r="A85">
-      <v>83</v>
-    </nc>
-  </rcc>
-  <rcc rId="172" sId="2" numFmtId="30">
-    <oc r="A86">
-      <v>90</v>
-    </oc>
-    <nc r="A86">
-      <v>84</v>
-    </nc>
-  </rcc>
-  <rcc rId="173" sId="2" numFmtId="30">
-    <oc r="A87">
-      <v>91</v>
-    </oc>
-    <nc r="A87">
-      <v>85</v>
-    </nc>
-  </rcc>
-  <rcc rId="174" sId="2" numFmtId="30">
-    <oc r="A88">
-      <v>92</v>
-    </oc>
-    <nc r="A88">
-      <v>86</v>
-    </nc>
-  </rcc>
-  <rcc rId="175" sId="2" numFmtId="30">
-    <oc r="A89">
-      <v>93</v>
-    </oc>
-    <nc r="A89">
-      <v>87</v>
-    </nc>
-  </rcc>
-  <rcc rId="176" sId="2" numFmtId="30">
-    <oc r="A90">
-      <v>94</v>
-    </oc>
-    <nc r="A90">
-      <v>88</v>
-    </nc>
-  </rcc>
-  <rcc rId="177" sId="2" numFmtId="30">
-    <oc r="A91">
-      <v>95</v>
-    </oc>
-    <nc r="A91">
-      <v>89</v>
-    </nc>
-  </rcc>
-  <rcc rId="178" sId="2" numFmtId="30">
-    <oc r="A92">
-      <v>96</v>
-    </oc>
-    <nc r="A92">
-      <v>90</v>
-    </nc>
-  </rcc>
-  <rcc rId="179" sId="2" numFmtId="30">
-    <oc r="A93">
-      <v>97</v>
-    </oc>
-    <nc r="A93">
-      <v>91</v>
-    </nc>
-  </rcc>
-  <rcc rId="180" sId="2" numFmtId="30">
-    <oc r="A94">
-      <v>98</v>
-    </oc>
-    <nc r="A94">
-      <v>92</v>
-    </nc>
-  </rcc>
-  <rcc rId="181" sId="2" numFmtId="30">
-    <oc r="A95">
-      <v>99</v>
-    </oc>
-    <nc r="A95">
-      <v>93</v>
-    </nc>
-  </rcc>
-  <rcc rId="182" sId="2" numFmtId="30">
-    <oc r="A96">
-      <v>100</v>
-    </oc>
-    <nc r="A96">
-      <v>94</v>
-    </nc>
-  </rcc>
-  <rcc rId="183" sId="2" numFmtId="30">
-    <oc r="A97">
-      <v>101</v>
-    </oc>
-    <nc r="A97">
-      <v>95</v>
-    </nc>
-  </rcc>
-  <rcc rId="184" sId="2" numFmtId="30">
-    <oc r="A98">
-      <v>102</v>
-    </oc>
-    <nc r="A98">
-      <v>96</v>
-    </nc>
-  </rcc>
-  <rcc rId="185" sId="2" numFmtId="30">
-    <oc r="A99">
-      <v>103</v>
-    </oc>
-    <nc r="A99">
-      <v>97</v>
-    </nc>
-  </rcc>
-  <rcc rId="186" sId="2" numFmtId="30">
-    <oc r="A100">
-      <v>104</v>
-    </oc>
-    <nc r="A100">
-      <v>98</v>
-    </nc>
-  </rcc>
-  <rcc rId="187" sId="2" numFmtId="30">
-    <oc r="A101">
-      <v>105</v>
-    </oc>
-    <nc r="A101">
-      <v>99</v>
-    </nc>
-  </rcc>
-  <rcc rId="188" sId="2" numFmtId="30">
-    <oc r="A102">
-      <v>106</v>
-    </oc>
-    <nc r="A102">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="189" sId="2" numFmtId="30">
-    <oc r="A103">
-      <v>107</v>
-    </oc>
-    <nc r="A103">
-      <v>101</v>
-    </nc>
-  </rcc>
-  <rcc rId="190" sId="2" numFmtId="30">
-    <oc r="A104">
-      <v>108</v>
-    </oc>
-    <nc r="A104">
-      <v>102</v>
-    </nc>
-  </rcc>
-  <rcc rId="191" sId="2" numFmtId="30">
-    <oc r="A105">
-      <v>109</v>
-    </oc>
-    <nc r="A105">
-      <v>103</v>
-    </nc>
-  </rcc>
-  <rcc rId="192" sId="2" numFmtId="30">
-    <oc r="A106">
-      <v>110</v>
-    </oc>
-    <nc r="A106">
-      <v>104</v>
-    </nc>
-  </rcc>
-  <rcc rId="193" sId="2" numFmtId="30">
-    <oc r="A107">
-      <v>111</v>
-    </oc>
-    <nc r="A107">
-      <v>105</v>
-    </nc>
-  </rcc>
-  <rcc rId="194" sId="2" numFmtId="30">
-    <oc r="A108">
-      <v>112</v>
-    </oc>
-    <nc r="A108">
-      <v>106</v>
-    </nc>
-  </rcc>
-  <rcc rId="195" sId="2" numFmtId="30">
-    <oc r="A109">
-      <v>113</v>
-    </oc>
-    <nc r="A109">
-      <v>107</v>
-    </nc>
-  </rcc>
-  <rcc rId="196" sId="2" numFmtId="30">
-    <oc r="A110">
-      <v>114</v>
-    </oc>
-    <nc r="A110">
-      <v>108</v>
-    </nc>
-  </rcc>
-  <rcc rId="197" sId="2" numFmtId="30">
-    <oc r="A111">
-      <v>115</v>
-    </oc>
-    <nc r="A111">
-      <v>109</v>
-    </nc>
-  </rcc>
-  <rcc rId="198" sId="2" numFmtId="30">
-    <oc r="A112">
-      <v>116</v>
-    </oc>
-    <nc r="A112">
-      <v>110</v>
-    </nc>
-  </rcc>
-  <rcc rId="199" sId="2" numFmtId="30">
-    <oc r="A113">
-      <v>117</v>
-    </oc>
-    <nc r="A113">
-      <v>111</v>
-    </nc>
-  </rcc>
-  <rcc rId="200" sId="2" numFmtId="30">
-    <oc r="A114">
-      <v>118</v>
-    </oc>
-    <nc r="A114">
-      <v>112</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="201" sId="2">
-    <oc r="M77" t="inlineStr">
-      <is>
-        <t>timeout = 36000</t>
-      </is>
-    </oc>
-    <nc r="M77" t="inlineStr">
-      <is>
-        <t>timeout = 3600</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="202" sId="2">
-    <oc r="M86" t="inlineStr">
-      <is>
-        <t>timeout = 36000</t>
-      </is>
-    </oc>
-    <nc r="M86" t="inlineStr">
-      <is>
-        <t>timeout = 3600</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="203" sId="2">
-    <oc r="M92" t="inlineStr">
-      <is>
-        <t>timeout = 36000</t>
-      </is>
-    </oc>
-    <nc r="M92" t="inlineStr">
-      <is>
-        <t>timeout = 3600</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="204" sId="2">
-    <oc r="M113" t="inlineStr">
-      <is>
-        <t>timeout = 36000</t>
-      </is>
-    </oc>
-    <nc r="M113" t="inlineStr">
-      <is>
-        <t>timeout = 3600</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="205" sId="2">
-    <oc r="AE77" t="inlineStr">
-      <is>
-        <t>sim</t>
-      </is>
-    </oc>
-    <nc r="AE77" t="inlineStr">
-      <is>
-        <t>impl</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7975,9 +5685,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8010,26 +5720,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8062,26 +5755,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8257,7 +5933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -8271,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8279,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8287,7 +5965,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8300,7 +5978,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8308,7 +5986,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8316,7 +5994,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8324,7 +6002,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8432,7 +6110,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8443,33 +6121,33 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="B4" sqref="B4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" topLeftCell="A28">
+      <selection activeCell="L16" sqref="L16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
     <customSheetView guid="{C0A805CE-8E4A-464E-8465-22192DA32AD3}">
       <selection activeCell="E9" sqref="E9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" topLeftCell="A28">
-      <selection activeCell="L16" sqref="L16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}">
-      <selection activeCell="B10" sqref="B10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="B4" sqref="B4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
     </customSheetView>
@@ -8482,14 +6160,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE114"/>
+  <dimension ref="A1:AE109"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8664,7 +6342,7 @@
         <v>269</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -8678,7 +6356,7 @@
         <v>269</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -8700,7 +6378,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>269</v>
@@ -8720,7 +6398,7 @@
         <v>269</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -8734,7 +6412,7 @@
         <v>269</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -8748,7 +6426,7 @@
         <v>269</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -8762,7 +6440,7 @@
         <v>269</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -8776,7 +6454,7 @@
         <v>269</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -8790,7 +6468,7 @@
         <v>269</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -8804,7 +6482,7 @@
         <v>269</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -8818,7 +6496,7 @@
         <v>269</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -8832,7 +6510,7 @@
         <v>269</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -8846,7 +6524,7 @@
         <v>269</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -8860,7 +6538,7 @@
         <v>269</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -8874,7 +6552,7 @@
         <v>269</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -8888,7 +6566,7 @@
         <v>269</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -8902,7 +6580,7 @@
         <v>269</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -8916,7 +6594,7 @@
         <v>269</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -8930,7 +6608,7 @@
         <v>269</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -8958,7 +6636,7 @@
         <v>269</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -9011,13 +6689,13 @@
         <v>294</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -9031,7 +6709,7 @@
         <v>269</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -9045,7 +6723,7 @@
         <v>269</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -9062,7 +6740,7 @@
         <v>269</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -9076,7 +6754,7 @@
         <v>269</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -9090,7 +6768,7 @@
         <v>269</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -9104,7 +6782,7 @@
         <v>269</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -9132,7 +6810,7 @@
         <v>269</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -9146,7 +6824,7 @@
         <v>269</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -9160,7 +6838,7 @@
         <v>269</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -9174,7 +6852,7 @@
         <v>269</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -9188,7 +6866,7 @@
         <v>269</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -9202,7 +6880,7 @@
         <v>269</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -9216,7 +6894,7 @@
         <v>269</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -9230,7 +6908,7 @@
         <v>269</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -9238,13 +6916,13 @@
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -9258,7 +6936,7 @@
         <v>269</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -9272,7 +6950,7 @@
         <v>269</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -9286,7 +6964,7 @@
         <v>269</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -9300,7 +6978,7 @@
         <v>269</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -9314,7 +6992,7 @@
         <v>269</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -9328,7 +7006,7 @@
         <v>269</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -9342,7 +7020,7 @@
         <v>269</v>
       </c>
       <c r="AE51" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -9356,7 +7034,7 @@
         <v>269</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -9370,7 +7048,7 @@
         <v>269</v>
       </c>
       <c r="AE53" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -9384,7 +7062,7 @@
         <v>269</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9398,7 +7076,7 @@
         <v>269</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9412,7 +7090,7 @@
         <v>269</v>
       </c>
       <c r="AE56" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9426,7 +7104,7 @@
         <v>269</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9454,7 +7132,7 @@
         <v>269</v>
       </c>
       <c r="AE59" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9462,13 +7140,13 @@
         <v>58</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE60" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9482,7 +7160,7 @@
         <v>269</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -9496,7 +7174,7 @@
         <v>269</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -9510,7 +7188,7 @@
         <v>269</v>
       </c>
       <c r="AE63" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -9524,7 +7202,7 @@
         <v>269</v>
       </c>
       <c r="AE64" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -9532,13 +7210,13 @@
         <v>63</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE65" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -9552,7 +7230,7 @@
         <v>269</v>
       </c>
       <c r="AE66" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -9566,7 +7244,7 @@
         <v>269</v>
       </c>
       <c r="AE67" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -9580,7 +7258,7 @@
         <v>269</v>
       </c>
       <c r="AE68" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -9594,7 +7272,7 @@
         <v>269</v>
       </c>
       <c r="AE69" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -9608,7 +7286,7 @@
         <v>269</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -9622,7 +7300,7 @@
         <v>269</v>
       </c>
       <c r="AE71" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -9636,7 +7314,7 @@
         <v>269</v>
       </c>
       <c r="AE72" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -9650,7 +7328,7 @@
         <v>269</v>
       </c>
       <c r="AE73" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -9664,7 +7342,7 @@
         <v>269</v>
       </c>
       <c r="AE74" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -9692,7 +7370,7 @@
         <v>269</v>
       </c>
       <c r="AE76" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -9703,7 +7381,7 @@
         <v>341</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>269</v>
@@ -9723,7 +7401,7 @@
         <v>269</v>
       </c>
       <c r="AE78" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:31">
@@ -9737,7 +7415,7 @@
         <v>269</v>
       </c>
       <c r="AE79" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:31">
@@ -9751,7 +7429,7 @@
         <v>269</v>
       </c>
       <c r="AE80" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="1:31">
@@ -9765,7 +7443,7 @@
         <v>269</v>
       </c>
       <c r="AE81" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:31">
@@ -9779,7 +7457,7 @@
         <v>269</v>
       </c>
       <c r="AE82" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:31">
@@ -9807,7 +7485,7 @@
         <v>269</v>
       </c>
       <c r="AE84" s="2" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:31">
@@ -9817,6 +7495,9 @@
       <c r="E85" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="M85" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="S85" s="2" t="s">
         <v>269</v>
       </c>
@@ -9831,14 +7512,11 @@
       <c r="E86" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="M86" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="S86" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE86" s="2" t="s">
-        <v>271</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:31">
@@ -9852,7 +7530,7 @@
         <v>269</v>
       </c>
       <c r="AE87" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:31">
@@ -9862,11 +7540,17 @@
       <c r="E88" s="2" t="s">
         <v>352</v>
       </c>
+      <c r="H88" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="S88" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE88" s="2" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:31">
@@ -9874,13 +7558,16 @@
         <v>87</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE89" s="2" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:31">
@@ -9888,13 +7575,10 @@
         <v>88</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="O90" s="2" t="s">
         <v>356</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>269</v>
@@ -9910,9 +7594,6 @@
       <c r="E91" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="O91" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="S91" s="2" t="s">
         <v>269</v>
       </c>
@@ -9927,8 +7608,8 @@
       <c r="E92" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M92" s="2" t="s">
-        <v>395</v>
+      <c r="O92" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>269</v>
@@ -9948,7 +7629,7 @@
         <v>269</v>
       </c>
       <c r="AE93" s="2" t="s">
-        <v>271</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:31">
@@ -9956,13 +7637,13 @@
         <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:31">
@@ -9970,13 +7651,13 @@
         <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE95" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:31">
@@ -9984,13 +7665,13 @@
         <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE96" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="1:31">
@@ -9998,10 +7679,7 @@
         <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>269</v>
@@ -10015,13 +7693,13 @@
         <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE98" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:31">
@@ -10029,13 +7707,13 @@
         <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE99" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="1:31">
@@ -10043,13 +7721,13 @@
         <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE100" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="1:31">
@@ -10057,13 +7735,13 @@
         <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE101" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:31">
@@ -10071,7 +7749,7 @@
         <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>269</v>
@@ -10085,13 +7763,13 @@
         <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE103" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="1:31">
@@ -10099,13 +7777,13 @@
         <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE104" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:31">
@@ -10113,13 +7791,13 @@
         <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE105" s="2" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106" spans="1:31">
@@ -10127,13 +7805,13 @@
         <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE106" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="1:31">
@@ -10141,7 +7819,7 @@
         <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>269</v>
@@ -10155,13 +7833,19 @@
         <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE108" s="2" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:31">
@@ -10169,136 +7853,60 @@
         <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="S109" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE109" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="110" spans="1:31">
-      <c r="A110" s="2">
-        <v>108</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="S110" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE110" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31">
-      <c r="A111" s="2">
-        <v>109</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE111" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="112" spans="1:31">
-      <c r="A112" s="2">
-        <v>110</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="S112" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE112" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" spans="1:31">
-      <c r="A113" s="2">
-        <v>111</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="S113" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE113" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="114" spans="1:31">
-      <c r="A114" s="2">
-        <v>112</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="S114" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE114" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="v2hpJDsnNJOHb+dnflvuQtMtKJm4oQb/8lsc2tY2iut3yOWbklMFB7sDR54AMogcXEB15YJ+DIs7uKcb2RLWLw==" saltValue="F6uvkEHItz4dfnAAARq/Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A2:AE114" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:AE109" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B139" sqref="B139"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:AE137" xr:uid="{1D569FB2-5770-405C-9390-07B83290415F}"/>
+      <autoFilter ref="A2:Y2" xr:uid="{82F369E1-801F-4DE8-9518-8B0CAD6A67BE}"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:Y2" xr:uid="{5C16877F-1377-4ED4-BAD5-D0946E2121D7}"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="A2:AE2" xr:uid="{7919F3BC-8D43-4F87-84F0-E52091D379EF}"/>
+    </customSheetView>
+    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C120" sqref="C120"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+      <autoFilter ref="A2:AE330" xr:uid="{587F5AE9-A791-47E5-939E-65EBA7EE5930}"/>
     </customSheetView>
     <customSheetView guid="{C0A805CE-8E4A-464E-8465-22192DA32AD3}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C337" sqref="C337"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:AE331" xr:uid="{C1789943-7374-4687-B847-F334BC1CE8CA}"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+      <autoFilter ref="A2:AE331" xr:uid="{41433EF2-C26C-4D3B-9F12-33F84AE80C15}"/>
     </customSheetView>
-    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C120" sqref="C120"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:AE330" xr:uid="{53F8181B-F06F-48A1-AC8F-601F2D17F68E}"/>
-    </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:AE2" xr:uid="{80C77680-97EE-45AA-8383-C9CEE05FCB36}"/>
-    </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A2:Y2" xr:uid="{028C9ABE-B76F-4E08-8C1B-137B063773D7}"/>
-    </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B139" sqref="B139"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A2:Y2" xr:uid="{B319A3BE-ECAE-452A-A3B2-E78B229D84AB}"/>
+      <autoFilter ref="A2:AE137" xr:uid="{0BB2246A-43ED-42F1-8CF5-BAAA8F5E777E}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -10323,49 +7931,49 @@
           <x14:formula1>
             <xm:f>description!$F$141:$H$141</xm:f>
           </x14:formula1>
-          <xm:sqref>AC121:AC1048576 AC1:AC114</xm:sqref>
+          <xm:sqref>AC116:AC1048576 AC1:AC109</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>description!$F$142:$H$142</xm:f>
           </x14:formula1>
-          <xm:sqref>AD121:AD1048576 AD1:AD114</xm:sqref>
+          <xm:sqref>AD116:AD1048576 AD1:AD109</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>description!$F$122:$H$122</xm:f>
           </x14:formula1>
-          <xm:sqref>K121:K1048576 K1:K114</xm:sqref>
+          <xm:sqref>K116:K1048576 K1:K109</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>description!$F$121:$K$121</xm:f>
           </x14:formula1>
-          <xm:sqref>J121:J1048576 J1:J114</xm:sqref>
+          <xm:sqref>J116:J1048576 J1:J109</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>description!$F$123:$H$123</xm:f>
           </x14:formula1>
-          <xm:sqref>L121:L1048576 L1:L114</xm:sqref>
+          <xm:sqref>L116:L1048576 L1:L109</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>description!$E$113:$F$113</xm:f>
           </x14:formula1>
-          <xm:sqref>B121:B1048576 B1:B114</xm:sqref>
+          <xm:sqref>B116:B1048576 B1:B109</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>description!$F$117:$H$117</xm:f>
           </x14:formula1>
-          <xm:sqref>F121:F1048576 F1:F114</xm:sqref>
+          <xm:sqref>F116:F1048576 F1:F109</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>description!$F$120:$K$120</xm:f>
           </x14:formula1>
-          <xm:sqref>I121:I1048576 I1:I114</xm:sqref>
+          <xm:sqref>I116:I1048576 I1:I109</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10439,17 +8047,17 @@
       <c r="E111" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F111" s="99" t="s">
+      <c r="F111" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="G111" s="100"/>
-      <c r="H111" s="100"/>
-      <c r="I111" s="100"/>
-      <c r="J111" s="100"/>
-      <c r="K111" s="100"/>
-      <c r="L111" s="100"/>
-      <c r="M111" s="100"/>
-      <c r="N111" s="101"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="69"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="69"/>
+      <c r="M111" s="69"/>
+      <c r="N111" s="70"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
@@ -11339,7 +8947,7 @@
       <c r="A148" s="26">
         <v>1</v>
       </c>
-      <c r="B148" s="84" t="s">
+      <c r="B148" s="71" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -11365,7 +8973,7 @@
       <c r="A149" s="26">
         <v>2</v>
       </c>
-      <c r="B149" s="85"/>
+      <c r="B149" s="72"/>
       <c r="C149" s="28" t="s">
         <v>129</v>
       </c>
@@ -11387,7 +8995,7 @@
       <c r="A150" s="26">
         <v>3</v>
       </c>
-      <c r="B150" s="85"/>
+      <c r="B150" s="72"/>
       <c r="C150" s="28" t="s">
         <v>9</v>
       </c>
@@ -11407,7 +9015,7 @@
       <c r="A151" s="26">
         <v>4</v>
       </c>
-      <c r="B151" s="85"/>
+      <c r="B151" s="72"/>
       <c r="C151" s="28" t="s">
         <v>131</v>
       </c>
@@ -11431,7 +9039,7 @@
       <c r="A152" s="26">
         <v>5</v>
       </c>
-      <c r="B152" s="85"/>
+      <c r="B152" s="72"/>
       <c r="C152" s="27" t="s">
         <v>133</v>
       </c>
@@ -11455,7 +9063,7 @@
       <c r="A153" s="26">
         <v>6</v>
       </c>
-      <c r="B153" s="85"/>
+      <c r="B153" s="72"/>
       <c r="C153" s="27" t="s">
         <v>137</v>
       </c>
@@ -11479,7 +9087,7 @@
       <c r="A154" s="26">
         <v>7</v>
       </c>
-      <c r="B154" s="85"/>
+      <c r="B154" s="72"/>
       <c r="C154" s="28" t="s">
         <v>140</v>
       </c>
@@ -11501,7 +9109,7 @@
       <c r="A155" s="26">
         <v>8</v>
       </c>
-      <c r="B155" s="85"/>
+      <c r="B155" s="72"/>
       <c r="C155" s="27" t="s">
         <v>141</v>
       </c>
@@ -11525,7 +9133,7 @@
       <c r="A156" s="26">
         <v>9</v>
       </c>
-      <c r="B156" s="85"/>
+      <c r="B156" s="72"/>
       <c r="C156" s="27" t="s">
         <v>142</v>
       </c>
@@ -11549,7 +9157,7 @@
       <c r="A157" s="26">
         <v>10</v>
       </c>
-      <c r="B157" s="85"/>
+      <c r="B157" s="72"/>
       <c r="C157" s="28" t="s">
         <v>143</v>
       </c>
@@ -11573,7 +9181,7 @@
       <c r="A158" s="26">
         <v>11</v>
       </c>
-      <c r="B158" s="85"/>
+      <c r="B158" s="72"/>
       <c r="C158" s="28" t="s">
         <v>144</v>
       </c>
@@ -11597,7 +9205,7 @@
       <c r="A159" s="26">
         <v>12</v>
       </c>
-      <c r="B159" s="85"/>
+      <c r="B159" s="72"/>
       <c r="C159" s="28" t="s">
         <v>146</v>
       </c>
@@ -11619,7 +9227,7 @@
       <c r="A160" s="26">
         <v>13</v>
       </c>
-      <c r="B160" s="79"/>
+      <c r="B160" s="73"/>
       <c r="C160" s="28" t="s">
         <v>54</v>
       </c>
@@ -11643,7 +9251,7 @@
       <c r="A161" s="26">
         <v>14</v>
       </c>
-      <c r="B161" s="75" t="s">
+      <c r="B161" s="66" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="28" t="s">
@@ -11669,7 +9277,7 @@
       <c r="A162" s="26">
         <v>15</v>
       </c>
-      <c r="B162" s="74"/>
+      <c r="B162" s="67"/>
       <c r="C162" s="28" t="s">
         <v>154</v>
       </c>
@@ -11693,7 +9301,7 @@
       <c r="A163" s="26">
         <v>16</v>
       </c>
-      <c r="B163" s="84" t="s">
+      <c r="B163" s="71" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="28" t="s">
@@ -11717,7 +9325,7 @@
       <c r="A164" s="26">
         <v>17</v>
       </c>
-      <c r="B164" s="102"/>
+      <c r="B164" s="74"/>
       <c r="C164" s="27" t="s">
         <v>158</v>
       </c>
@@ -11739,7 +9347,7 @@
       <c r="A165" s="26">
         <v>18</v>
       </c>
-      <c r="B165" s="79"/>
+      <c r="B165" s="73"/>
       <c r="C165" s="27" t="s">
         <v>160</v>
       </c>
@@ -11759,7 +9367,7 @@
       <c r="A166" s="26">
         <v>19</v>
       </c>
-      <c r="B166" s="75" t="s">
+      <c r="B166" s="66" t="s">
         <v>6</v>
       </c>
       <c r="C166" s="28" t="s">
@@ -11783,7 +9391,7 @@
       <c r="A167" s="26">
         <v>20</v>
       </c>
-      <c r="B167" s="74"/>
+      <c r="B167" s="67"/>
       <c r="C167" s="28" t="s">
         <v>165</v>
       </c>
@@ -11803,7 +9411,7 @@
       <c r="A168" s="26">
         <v>21</v>
       </c>
-      <c r="B168" s="74"/>
+      <c r="B168" s="67"/>
       <c r="C168" s="28" t="s">
         <v>166</v>
       </c>
@@ -11823,7 +9431,7 @@
       <c r="A169" s="26">
         <v>22</v>
       </c>
-      <c r="B169" s="74"/>
+      <c r="B169" s="67"/>
       <c r="C169" s="28" t="s">
         <v>167</v>
       </c>
@@ -11843,7 +9451,7 @@
       <c r="A170" s="26">
         <v>23</v>
       </c>
-      <c r="B170" s="74"/>
+      <c r="B170" s="67"/>
       <c r="C170" s="28" t="s">
         <v>168</v>
       </c>
@@ -11863,7 +9471,7 @@
       <c r="A171" s="26">
         <v>24</v>
       </c>
-      <c r="B171" s="74"/>
+      <c r="B171" s="67"/>
       <c r="C171" s="28" t="s">
         <v>169</v>
       </c>
@@ -11883,7 +9491,7 @@
       <c r="A172" s="26">
         <v>25</v>
       </c>
-      <c r="B172" s="74"/>
+      <c r="B172" s="67"/>
       <c r="C172" s="28" t="s">
         <v>170</v>
       </c>
@@ -11903,7 +9511,7 @@
       <c r="A173" s="26">
         <v>26</v>
       </c>
-      <c r="B173" s="74"/>
+      <c r="B173" s="67"/>
       <c r="C173" s="28" t="s">
         <v>40</v>
       </c>
@@ -11923,7 +9531,7 @@
       <c r="A174" s="26">
         <v>27</v>
       </c>
-      <c r="B174" s="75" t="s">
+      <c r="B174" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="28" t="s">
@@ -11947,7 +9555,7 @@
       <c r="A175" s="26">
         <v>28</v>
       </c>
-      <c r="B175" s="74"/>
+      <c r="B175" s="67"/>
       <c r="C175" s="27" t="s">
         <v>174</v>
       </c>
@@ -11969,7 +9577,7 @@
       <c r="A176" s="26">
         <v>29</v>
       </c>
-      <c r="B176" s="74"/>
+      <c r="B176" s="67"/>
       <c r="C176" s="28" t="s">
         <v>177</v>
       </c>
@@ -11991,7 +9599,7 @@
       <c r="A177" s="26">
         <v>30</v>
       </c>
-      <c r="B177" s="84" t="s">
+      <c r="B177" s="71" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="28" t="s">
@@ -12017,7 +9625,7 @@
       <c r="A178" s="31">
         <v>31</v>
       </c>
-      <c r="B178" s="85"/>
+      <c r="B178" s="72"/>
       <c r="C178" s="32" t="s">
         <v>182</v>
       </c>
@@ -12041,7 +9649,7 @@
       <c r="A179" s="23">
         <v>32</v>
       </c>
-      <c r="B179" s="86" t="s">
+      <c r="B179" s="75" t="s">
         <v>184</v>
       </c>
       <c r="C179" s="33" t="s">
@@ -12065,7 +9673,7 @@
       <c r="A180" s="26">
         <v>33</v>
       </c>
-      <c r="B180" s="87"/>
+      <c r="B180" s="76"/>
       <c r="C180" s="27" t="s">
         <v>188</v>
       </c>
@@ -12087,7 +9695,7 @@
       <c r="A181" s="26">
         <v>34</v>
       </c>
-      <c r="B181" s="88"/>
+      <c r="B181" s="77"/>
       <c r="C181" s="34" t="s">
         <v>191</v>
       </c>
@@ -12109,7 +9717,7 @@
       <c r="A182" s="31">
         <v>35</v>
       </c>
-      <c r="B182" s="88"/>
+      <c r="B182" s="77"/>
       <c r="C182" s="34" t="s">
         <v>192</v>
       </c>
@@ -12131,7 +9739,7 @@
       <c r="A183" s="31">
         <v>36</v>
       </c>
-      <c r="B183" s="88"/>
+      <c r="B183" s="77"/>
       <c r="C183" s="34" t="s">
         <v>195</v>
       </c>
@@ -12151,7 +9759,7 @@
       <c r="A184" s="31">
         <v>37</v>
       </c>
-      <c r="B184" s="88"/>
+      <c r="B184" s="77"/>
       <c r="C184" s="34" t="s">
         <v>247</v>
       </c>
@@ -12173,7 +9781,7 @@
       <c r="A185" s="35">
         <v>38</v>
       </c>
-      <c r="B185" s="83"/>
+      <c r="B185" s="78"/>
       <c r="C185" s="36" t="s">
         <v>251</v>
       </c>
@@ -12224,11 +9832,11 @@
       <c r="B199" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C199" s="89" t="s">
+      <c r="C199" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="89"/>
-      <c r="E199" s="89"/>
+      <c r="D199" s="79"/>
+      <c r="E199" s="79"/>
       <c r="F199" s="37" t="s">
         <v>41</v>
       </c>
@@ -12237,17 +9845,17 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="72" t="s">
+      <c r="A200" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="74" t="s">
+      <c r="B200" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="C200" s="91" t="s">
+      <c r="C200" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D200" s="92"/>
-      <c r="E200" s="92"/>
+      <c r="D200" s="83"/>
+      <c r="E200" s="83"/>
       <c r="F200" s="28" t="s">
         <v>207</v>
       </c>
@@ -12256,13 +9864,13 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="72"/>
-      <c r="B201" s="90"/>
-      <c r="C201" s="93" t="s">
+      <c r="A201" s="80"/>
+      <c r="B201" s="81"/>
+      <c r="C201" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D201" s="94"/>
-      <c r="E201" s="94"/>
+      <c r="D201" s="85"/>
+      <c r="E201" s="85"/>
       <c r="F201" s="32" t="s">
         <v>208</v>
       </c>
@@ -12271,15 +9879,15 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="72"/>
-      <c r="B202" s="74" t="s">
+      <c r="A202" s="80"/>
+      <c r="B202" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="C202" s="95" t="s">
+      <c r="C202" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="D202" s="95"/>
-      <c r="E202" s="95"/>
+      <c r="D202" s="86"/>
+      <c r="E202" s="86"/>
       <c r="F202" s="28" t="s">
         <v>207</v>
       </c>
@@ -12288,13 +9896,13 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="72"/>
-      <c r="B203" s="74"/>
-      <c r="C203" s="93" t="s">
+      <c r="A203" s="80"/>
+      <c r="B203" s="67"/>
+      <c r="C203" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="D203" s="93"/>
-      <c r="E203" s="93"/>
+      <c r="D203" s="84"/>
+      <c r="E203" s="84"/>
       <c r="F203" s="28" t="s">
         <v>208</v>
       </c>
@@ -12303,15 +9911,15 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="72"/>
-      <c r="B204" s="90" t="s">
+      <c r="A204" s="80"/>
+      <c r="B204" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="C204" s="96" t="s">
+      <c r="C204" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D204" s="97"/>
-      <c r="E204" s="98"/>
+      <c r="D204" s="88"/>
+      <c r="E204" s="89"/>
       <c r="F204" s="28" t="s">
         <v>207</v>
       </c>
@@ -12320,13 +9928,13 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="72"/>
-      <c r="B205" s="79"/>
-      <c r="C205" s="96" t="s">
+      <c r="A205" s="80"/>
+      <c r="B205" s="73"/>
+      <c r="C205" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D205" s="97"/>
-      <c r="E205" s="98"/>
+      <c r="D205" s="88"/>
+      <c r="E205" s="89"/>
       <c r="F205" s="28" t="s">
         <v>208</v>
       </c>
@@ -12335,15 +9943,15 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="72"/>
-      <c r="B206" s="74" t="s">
+      <c r="A206" s="80"/>
+      <c r="B206" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="C206" s="95" t="s">
+      <c r="C206" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="D206" s="95"/>
-      <c r="E206" s="95"/>
+      <c r="D206" s="86"/>
+      <c r="E206" s="86"/>
       <c r="F206" s="28" t="s">
         <v>207</v>
       </c>
@@ -12352,13 +9960,13 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="72"/>
-      <c r="B207" s="74"/>
-      <c r="C207" s="95" t="s">
+      <c r="A207" s="80"/>
+      <c r="B207" s="67"/>
+      <c r="C207" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="D207" s="95"/>
-      <c r="E207" s="95"/>
+      <c r="D207" s="86"/>
+      <c r="E207" s="86"/>
       <c r="F207" s="28" t="s">
         <v>208</v>
       </c>
@@ -12367,17 +9975,17 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="72" t="s">
+      <c r="A208" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="74" t="s">
+      <c r="B208" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="C208" s="75" t="s">
+      <c r="C208" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D208" s="74"/>
-      <c r="E208" s="74"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="67"/>
       <c r="F208" s="28" t="s">
         <v>207</v>
       </c>
@@ -12386,13 +9994,13 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="72"/>
-      <c r="B209" s="74"/>
-      <c r="C209" s="74" t="s">
+      <c r="A209" s="80"/>
+      <c r="B209" s="67"/>
+      <c r="C209" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D209" s="74"/>
-      <c r="E209" s="74"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="67"/>
       <c r="F209" s="28" t="s">
         <v>208</v>
       </c>
@@ -12401,15 +10009,15 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="72"/>
-      <c r="B210" s="74" t="s">
+      <c r="A210" s="80"/>
+      <c r="B210" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="C210" s="74" t="s">
+      <c r="C210" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D210" s="74"/>
-      <c r="E210" s="74"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
       <c r="F210" s="28" t="s">
         <v>207</v>
       </c>
@@ -12418,13 +10026,13 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="72"/>
-      <c r="B211" s="74"/>
-      <c r="C211" s="74" t="s">
+      <c r="A211" s="80"/>
+      <c r="B211" s="67"/>
+      <c r="C211" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D211" s="74"/>
-      <c r="E211" s="74"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="67"/>
       <c r="F211" s="28" t="s">
         <v>208</v>
       </c>
@@ -12433,17 +10041,17 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="72" t="s">
+      <c r="A212" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="B212" s="74" t="s">
+      <c r="B212" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="C212" s="75" t="s">
+      <c r="C212" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D212" s="74"/>
-      <c r="E212" s="74"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
       <c r="F212" s="28" t="s">
         <v>207</v>
       </c>
@@ -12452,13 +10060,13 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="72"/>
-      <c r="B213" s="74"/>
-      <c r="C213" s="74" t="s">
+      <c r="A213" s="80"/>
+      <c r="B213" s="67"/>
+      <c r="C213" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D213" s="74"/>
-      <c r="E213" s="74"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
       <c r="F213" s="28" t="s">
         <v>208</v>
       </c>
@@ -12467,15 +10075,15 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="72"/>
-      <c r="B214" s="74" t="s">
+      <c r="A214" s="80"/>
+      <c r="B214" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="75" t="s">
+      <c r="C214" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="D214" s="74"/>
-      <c r="E214" s="74"/>
+      <c r="D214" s="67"/>
+      <c r="E214" s="67"/>
       <c r="F214" s="28" t="s">
         <v>207</v>
       </c>
@@ -12484,13 +10092,13 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A215" s="73"/>
-      <c r="B215" s="76"/>
-      <c r="C215" s="76" t="s">
+      <c r="A215" s="91"/>
+      <c r="B215" s="92"/>
+      <c r="C215" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="D215" s="76"/>
-      <c r="E215" s="76"/>
+      <c r="D215" s="92"/>
+      <c r="E215" s="92"/>
       <c r="F215" s="36" t="s">
         <v>208</v>
       </c>
@@ -12512,12 +10120,12 @@
       <c r="A220" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B220" s="77" t="s">
+      <c r="B220" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C220" s="77"/>
-      <c r="D220" s="77"/>
-      <c r="E220" s="77"/>
+      <c r="C220" s="93"/>
+      <c r="D220" s="93"/>
+      <c r="E220" s="93"/>
       <c r="F220" s="43" t="s">
         <v>226</v>
       </c>
@@ -12529,12 +10137,12 @@
       <c r="A221" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B221" s="78" t="s">
+      <c r="B221" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="C221" s="79"/>
-      <c r="D221" s="79"/>
-      <c r="E221" s="79"/>
+      <c r="C221" s="73"/>
+      <c r="D221" s="73"/>
+      <c r="E221" s="73"/>
       <c r="F221" s="46" t="s">
         <v>104</v>
       </c>
@@ -12546,12 +10154,12 @@
       <c r="A222" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B222" s="80" t="s">
+      <c r="B222" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="C222" s="81"/>
-      <c r="D222" s="81"/>
-      <c r="E222" s="82"/>
+      <c r="C222" s="96"/>
+      <c r="D222" s="96"/>
+      <c r="E222" s="97"/>
       <c r="F222" s="15" t="s">
         <v>61</v>
       </c>
@@ -12563,12 +10171,12 @@
       <c r="A223" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B223" s="80" t="s">
+      <c r="B223" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="C223" s="81"/>
-      <c r="D223" s="81"/>
-      <c r="E223" s="82"/>
+      <c r="C223" s="96"/>
+      <c r="D223" s="96"/>
+      <c r="E223" s="97"/>
       <c r="F223" s="18" t="s">
         <v>61</v>
       </c>
@@ -12580,12 +10188,12 @@
       <c r="A224" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B224" s="83" t="s">
+      <c r="B224" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="C224" s="76"/>
-      <c r="D224" s="76"/>
-      <c r="E224" s="76"/>
+      <c r="C224" s="92"/>
+      <c r="D224" s="92"/>
+      <c r="E224" s="92"/>
       <c r="F224" s="21" t="s">
         <v>61</v>
       </c>
@@ -12630,11 +10238,11 @@
       <c r="C229" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D229" s="71" t="s">
+      <c r="D229" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="E229" s="71"/>
-      <c r="F229" s="71"/>
+      <c r="E229" s="90"/>
+      <c r="F229" s="90"/>
       <c r="G229" s="25"/>
     </row>
     <row r="230" spans="1:7">
@@ -12647,11 +10255,11 @@
       <c r="C230" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D230" s="70" t="s">
+      <c r="D230" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="E230" s="70"/>
-      <c r="F230" s="70"/>
+      <c r="E230" s="102"/>
+      <c r="F230" s="102"/>
       <c r="G230" s="39"/>
     </row>
     <row r="231" spans="1:7">
@@ -12664,11 +10272,11 @@
       <c r="C231" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D231" s="70" t="s">
+      <c r="D231" s="102" t="s">
         <v>238</v>
       </c>
-      <c r="E231" s="70"/>
-      <c r="F231" s="70"/>
+      <c r="E231" s="102"/>
+      <c r="F231" s="102"/>
       <c r="G231" s="39"/>
     </row>
     <row r="232" spans="1:7">
@@ -12681,11 +10289,11 @@
       <c r="C232" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D232" s="70" t="s">
+      <c r="D232" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="E232" s="70"/>
-      <c r="F232" s="70"/>
+      <c r="E232" s="102"/>
+      <c r="F232" s="102"/>
       <c r="G232" s="39"/>
     </row>
     <row r="233" spans="1:7">
@@ -12698,11 +10306,11 @@
       <c r="C233" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D233" s="70" t="s">
+      <c r="D233" s="102" t="s">
         <v>240</v>
       </c>
-      <c r="E233" s="70"/>
-      <c r="F233" s="70"/>
+      <c r="E233" s="102"/>
+      <c r="F233" s="102"/>
       <c r="G233" s="39"/>
     </row>
     <row r="234" spans="1:7">
@@ -12715,11 +10323,11 @@
       <c r="C234" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D234" s="70" t="s">
+      <c r="D234" s="102" t="s">
         <v>241</v>
       </c>
-      <c r="E234" s="70"/>
-      <c r="F234" s="70"/>
+      <c r="E234" s="102"/>
+      <c r="F234" s="102"/>
       <c r="G234" s="39"/>
     </row>
     <row r="235" spans="1:7">
@@ -12732,11 +10340,11 @@
       <c r="C235" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D235" s="66" t="s">
+      <c r="D235" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="E235" s="67"/>
-      <c r="F235" s="68"/>
+      <c r="E235" s="99"/>
+      <c r="F235" s="100"/>
       <c r="G235" s="40"/>
     </row>
     <row r="236" spans="1:7">
@@ -12749,11 +10357,11 @@
       <c r="C236" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D236" s="66" t="s">
+      <c r="D236" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="E236" s="67"/>
-      <c r="F236" s="68"/>
+      <c r="E236" s="99"/>
+      <c r="F236" s="100"/>
       <c r="G236" s="40"/>
     </row>
     <row r="237" spans="1:7">
@@ -12766,11 +10374,11 @@
       <c r="C237" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D237" s="66" t="s">
+      <c r="D237" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="E237" s="67"/>
-      <c r="F237" s="68"/>
+      <c r="E237" s="99"/>
+      <c r="F237" s="100"/>
       <c r="G237" s="40"/>
     </row>
     <row r="238" spans="1:7">
@@ -12868,17 +10476,22 @@
       <c r="C243" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D243" s="69" t="s">
+      <c r="D243" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="E243" s="69"/>
-      <c r="F243" s="69"/>
+      <c r="E243" s="101"/>
+      <c r="F243" s="101"/>
       <c r="G243" s="41"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="dSSGbMlehNtWlIHSSfftCqUMab+Sb0hooxQMUpoStERkR2/XS3ERiPNaNXV+uIt5I/NGfmkjhmoCMOi5hOXKdQ==" saltValue="4j3/9e0Khi55FR2zrD17vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="115">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" scale="115">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
@@ -12888,24 +10501,42 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" scale="115">
-      <selection activeCell="C4" sqref="C4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="115">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="B148:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B166:B173"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:E214"/>
+    <mergeCell ref="C215:E215"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
     <mergeCell ref="B177:B178"/>
     <mergeCell ref="B179:B185"/>
     <mergeCell ref="C199:E199"/>
@@ -12922,35 +10553,12 @@
     <mergeCell ref="B206:B207"/>
     <mergeCell ref="C206:E206"/>
     <mergeCell ref="C207:E207"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:E214"/>
-    <mergeCell ref="C215:E215"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="B148:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B166:B173"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12969,7 +10577,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" topLeftCell="D10">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="E26" sqref="E26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" topLeftCell="D295">
+      <selection activeCell="A4" sqref="A4:AE331"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" topLeftCell="D10">
       <selection activeCell="J8" sqref="J8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -12977,20 +10597,8 @@
       <selection activeCell="J8" sqref="J8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" topLeftCell="D10">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" topLeftCell="D10">
       <selection activeCell="J8" sqref="J8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" topLeftCell="D295">
-      <selection activeCell="A4" sqref="A4:AE331"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="E26" sqref="E26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_11_Jedi_D6_100K.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_11_Jedi_D6_100K.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzhou2\Desktop\00_TMP_Client\new\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{9BF08EBD-CAB7-4F2C-85DC-3787B370400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{DDEE882F-2526-4504-B155-C33A51DEFA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,19 @@
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
     <definedName name="Z_1F35143E_328B_4EDC_927C_C18A57070EA0_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$2</definedName>
     <definedName name="Z_4BA09E17_24A5_4F6D_8CB6_7B3DF9B00FDE_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$109</definedName>
+    <definedName name="Z_78742338_1E85_42D5_AE40_AB93710B0000_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$109</definedName>
     <definedName name="Z_C0A805CE_8E4A_464E_8465_22192DA32AD3_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$109</definedName>
     <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AE$109</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jerry (Chenghan) Zhou - Personal View" guid="{78742338-1E85-42D5-AE40-AB93710B0000}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="2"/>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="Qiyang Xie - Personal View" guid="{C0A805CE-8E4A-464E-8465-22192DA32AD3}" mergeInterval="0" personalView="1" xWindow="2281" yWindow="209" windowWidth="1440" windowHeight="759" activeSheetId="1"/>
+    <customWorkbookView name="Xuan Gao - Personal View" guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
+    <customWorkbookView name="Jeffrey Ye - Personal View" guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Jeffrey Ye - Personal View" guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Xuan Gao - Personal View" guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="3"/>
-    <customWorkbookView name="Qiyang Xie - Personal View" guid="{C0A805CE-8E4A-464E-8465-22192DA32AD3}" mergeInterval="0" personalView="1" xWindow="2281" yWindow="209" windowWidth="1440" windowHeight="759" activeSheetId="1"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1" showComments="commIndAndComment"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -964,9 +966,6 @@
     <t>00_primitive/01_clock/11_PCLKDIVSP</t>
   </si>
   <si>
-    <t>00_primitive/01_clock/12_PLL</t>
-  </si>
-  <si>
     <t>cmd = --run-ipgen</t>
   </si>
   <si>
@@ -1244,6 +1243,9 @@
   </si>
   <si>
     <t>timeout = 3600</t>
+  </si>
+  <si>
+    <t>00_primitive/01_clock/12_PLLA</t>
   </si>
 </sst>
 </file>
@@ -2531,20 +2533,59 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2552,12 +2593,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2567,13 +2602,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2593,44 +2622,17 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -5220,8 +5222,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AF53F251-F23B-48D2-B8DB-01D19DF11292}" diskRevisions="1" revisionId="244" version="13">
-  <header guid="{AF53F251-F23B-48D2-B8DB-01D19DF11292}" dateTime="2023-10-11T19:36:22" maxSheetId="5" userName="Jason Wang" r:id="rId13" minRId="214" maxRId="244">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{82F17DBB-DF77-41E2-B963-FDDFE79C74F4}" diskRevisions="1" revisionId="246" version="14">
+  <header guid="{82F17DBB-DF77-41E2-B963-FDDFE79C74F4}" dateTime="2024-05-29T15:34:18" maxSheetId="5" userName="Jerry (Chenghan) Zhou" r:id="rId14" minRId="245">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -5232,411 +5234,24 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="214" sId="2" ref="A84:XFD84" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A84:XFD84" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A84">
-        <v>82</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E84" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/21_ODDRX4_26_gddrx4</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L84" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S84" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE84" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="215" sId="2" ref="A88:XFD88" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A88:XFD88" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A88">
-        <v>87</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E88" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/26_OSHX4_31_mddrx4_oshx4</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L88" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S88" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE88" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="216" sId="2" ref="A92:XFD92" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A92:XFD92" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A92">
-        <v>92</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E92" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/31_OUTDELAYA_mddrx4_lpddr4_T_write</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L92" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S92" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE92" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="217" sId="2" ref="A92:XFD92" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A92:XFD92" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A92">
-        <v>93</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E92" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/32_OUTDELAYB_mddrx4_lpddr4_T_write</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L92" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S92" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE92" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rrc rId="218" sId="2" ref="A92:XFD92" action="deleteRow">
-    <rfmt sheetId="2" xfDxf="1" sqref="A92:XFD92" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="30" formatCode="@"/>
-        <protection locked="0"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2" numFmtId="30">
-      <nc r="A92">
-        <v>94</v>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="E92" t="inlineStr">
-        <is>
-          <t>00_primitive/06_DDR/33_DQSBUF_IVREF_mddrx4_lpddr4_T_write</t>
-        </is>
-      </nc>
-    </rcc>
-    <rfmt sheetId="2" sqref="L92" start="0" length="0">
-      <dxf>
-        <numFmt numFmtId="0" formatCode="General"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="2">
-      <nc r="S92" t="inlineStr">
-        <is>
-          <t>primitive</t>
-        </is>
-      </nc>
-    </rcc>
-    <rcc rId="0" sId="2">
-      <nc r="AE92" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </nc>
-    </rcc>
-  </rrc>
-  <rcc rId="219" sId="2" numFmtId="30">
-    <oc r="A84">
-      <v>83</v>
+  <rcc rId="245" sId="2">
+    <oc r="E31" t="inlineStr">
+      <is>
+        <t>00_primitive/01_clock/12_PLL</t>
+      </is>
     </oc>
-    <nc r="A84">
-      <v>82</v>
+    <nc r="E31" t="inlineStr">
+      <is>
+        <t>00_primitive/01_clock/12_PLLA</t>
+      </is>
     </nc>
   </rcc>
-  <rcc rId="220" sId="2" numFmtId="30">
-    <oc r="A85">
-      <v>84</v>
-    </oc>
-    <nc r="A85">
-      <v>83</v>
-    </nc>
-  </rcc>
-  <rcc rId="221" sId="2" numFmtId="30">
-    <oc r="A86">
-      <v>85</v>
-    </oc>
-    <nc r="A86">
-      <v>84</v>
-    </nc>
-  </rcc>
-  <rcc rId="222" sId="2" numFmtId="30">
-    <oc r="A87">
-      <v>86</v>
-    </oc>
-    <nc r="A87">
-      <v>85</v>
-    </nc>
-  </rcc>
-  <rcc rId="223" sId="2" numFmtId="30">
-    <oc r="A88">
-      <v>88</v>
-    </oc>
-    <nc r="A88">
-      <v>86</v>
-    </nc>
-  </rcc>
-  <rcc rId="224" sId="2" numFmtId="30">
-    <oc r="A89">
-      <v>89</v>
-    </oc>
-    <nc r="A89">
-      <v>87</v>
-    </nc>
-  </rcc>
-  <rcc rId="225" sId="2" numFmtId="30">
-    <oc r="A90">
-      <v>90</v>
-    </oc>
-    <nc r="A90">
-      <v>88</v>
-    </nc>
-  </rcc>
-  <rcc rId="226" sId="2" numFmtId="30">
-    <oc r="A91">
-      <v>91</v>
-    </oc>
-    <nc r="A91">
-      <v>89</v>
-    </nc>
-  </rcc>
-  <rcc rId="227" sId="2" numFmtId="30">
-    <oc r="A92">
-      <v>95</v>
-    </oc>
-    <nc r="A92">
-      <v>90</v>
-    </nc>
-  </rcc>
-  <rcc rId="228" sId="2" numFmtId="30">
-    <oc r="A93">
-      <v>96</v>
-    </oc>
-    <nc r="A93">
-      <v>91</v>
-    </nc>
-  </rcc>
-  <rcc rId="229" sId="2" numFmtId="30">
-    <oc r="A94">
-      <v>97</v>
-    </oc>
-    <nc r="A94">
-      <v>92</v>
-    </nc>
-  </rcc>
-  <rcc rId="230" sId="2" numFmtId="30">
-    <oc r="A95">
-      <v>98</v>
-    </oc>
-    <nc r="A95">
-      <v>93</v>
-    </nc>
-  </rcc>
-  <rcc rId="231" sId="2" numFmtId="30">
-    <oc r="A96">
-      <v>99</v>
-    </oc>
-    <nc r="A96">
-      <v>94</v>
-    </nc>
-  </rcc>
-  <rcc rId="232" sId="2" numFmtId="30">
-    <oc r="A97">
-      <v>100</v>
-    </oc>
-    <nc r="A97">
-      <v>95</v>
-    </nc>
-  </rcc>
-  <rcc rId="233" sId="2" numFmtId="30">
-    <oc r="A98">
-      <v>101</v>
-    </oc>
-    <nc r="A98">
-      <v>96</v>
-    </nc>
-  </rcc>
-  <rcc rId="234" sId="2" numFmtId="30">
-    <oc r="A99">
-      <v>102</v>
-    </oc>
-    <nc r="A99">
-      <v>97</v>
-    </nc>
-  </rcc>
-  <rcc rId="235" sId="2" numFmtId="30">
-    <oc r="A100">
-      <v>103</v>
-    </oc>
-    <nc r="A100">
-      <v>98</v>
-    </nc>
-  </rcc>
-  <rcc rId="236" sId="2" numFmtId="30">
-    <oc r="A101">
-      <v>104</v>
-    </oc>
-    <nc r="A101">
-      <v>99</v>
-    </nc>
-  </rcc>
-  <rcc rId="237" sId="2" numFmtId="30">
-    <oc r="A102">
-      <v>105</v>
-    </oc>
-    <nc r="A102">
-      <v>100</v>
-    </nc>
-  </rcc>
-  <rcc rId="238" sId="2" numFmtId="30">
-    <oc r="A103">
-      <v>106</v>
-    </oc>
-    <nc r="A103">
-      <v>101</v>
-    </nc>
-  </rcc>
-  <rcc rId="239" sId="2" numFmtId="30">
-    <oc r="A104">
-      <v>107</v>
-    </oc>
-    <nc r="A104">
-      <v>102</v>
-    </nc>
-  </rcc>
-  <rcc rId="240" sId="2" numFmtId="30">
-    <oc r="A105">
-      <v>108</v>
-    </oc>
-    <nc r="A105">
-      <v>103</v>
-    </nc>
-  </rcc>
-  <rcc rId="241" sId="2" numFmtId="30">
-    <oc r="A106">
-      <v>109</v>
-    </oc>
-    <nc r="A106">
-      <v>104</v>
-    </nc>
-  </rcc>
-  <rcc rId="242" sId="2" numFmtId="30">
-    <oc r="A107">
-      <v>110</v>
-    </oc>
-    <nc r="A107">
-      <v>105</v>
-    </nc>
-  </rcc>
-  <rcc rId="243" sId="2" numFmtId="30">
-    <oc r="A108">
-      <v>111</v>
-    </oc>
-    <nc r="A108">
-      <v>106</v>
-    </nc>
-  </rcc>
-  <rcc rId="244" sId="2" numFmtId="30">
-    <oc r="A109">
-      <v>112</v>
-    </oc>
-    <nc r="A109">
-      <v>107</v>
-    </nc>
-  </rcc>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_78742338_1E85_42D5_AE40_AB93710B0000_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>case!$A$2:$AE$109</formula>
+  </rdn>
+  <rcv guid="{78742338-1E85-42D5-AE40-AB93710B0000}" action="add"/>
 </revisions>
 </file>
 
@@ -5933,7 +5548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5949,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5957,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5965,7 +5580,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5978,7 +5593,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5986,7 +5601,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5994,7 +5609,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6002,7 +5617,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6110,7 +5725,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6121,18 +5736,18 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{78742338-1E85-42D5-AE40-AB93710B0000}">
+      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="B4" sqref="B4"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}">
-      <selection activeCell="B10" sqref="B10"/>
+    <customSheetView guid="{C0A805CE-8E4A-464E-8465-22192DA32AD3}">
+      <selection activeCell="E9" sqref="E9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -6141,20 +5756,25 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{C0A805CE-8E4A-464E-8465-22192DA32AD3}">
-      <selection activeCell="E9" sqref="E9"/>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}">
+      <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B10" sqref="B10"/>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+    </customSheetView>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -6162,12 +5782,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C109" sqref="C109"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6342,7 +5962,7 @@
         <v>269</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -6356,7 +5976,7 @@
         <v>269</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -6378,7 +5998,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>269</v>
@@ -6398,7 +6018,7 @@
         <v>269</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6412,7 +6032,7 @@
         <v>269</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6426,7 +6046,7 @@
         <v>269</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6440,7 +6060,7 @@
         <v>269</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6454,7 +6074,7 @@
         <v>269</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6468,7 +6088,7 @@
         <v>269</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6482,7 +6102,7 @@
         <v>269</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6496,7 +6116,7 @@
         <v>269</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6510,7 +6130,7 @@
         <v>269</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6524,7 +6144,7 @@
         <v>269</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6538,7 +6158,7 @@
         <v>269</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -6552,7 +6172,7 @@
         <v>269</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -6566,7 +6186,7 @@
         <v>269</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -6580,7 +6200,7 @@
         <v>269</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -6594,7 +6214,7 @@
         <v>269</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -6608,7 +6228,7 @@
         <v>269</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -6636,7 +6256,7 @@
         <v>269</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -6689,13 +6309,13 @@
         <v>294</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -6709,7 +6329,7 @@
         <v>269</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -6723,7 +6343,7 @@
         <v>269</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -6731,16 +6351,16 @@
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="S31" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -6748,13 +6368,13 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE32" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -6762,13 +6382,13 @@
         <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -6776,13 +6396,13 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -6790,7 +6410,7 @@
         <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>269</v>
@@ -6804,13 +6424,13 @@
         <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -6818,13 +6438,13 @@
         <v>35</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -6832,13 +6452,13 @@
         <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -6846,13 +6466,13 @@
         <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE39" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -6860,13 +6480,13 @@
         <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -6874,13 +6494,13 @@
         <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -6888,13 +6508,13 @@
         <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S42" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -6902,13 +6522,13 @@
         <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -6916,13 +6536,13 @@
         <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -6930,13 +6550,13 @@
         <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE45" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -6944,13 +6564,13 @@
         <v>44</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S46" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -6958,13 +6578,13 @@
         <v>45</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S47" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -6972,13 +6592,13 @@
         <v>46</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S48" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -6986,13 +6606,13 @@
         <v>47</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -7000,13 +6620,13 @@
         <v>48</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S50" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -7014,13 +6634,13 @@
         <v>49</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S51" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE51" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -7028,13 +6648,13 @@
         <v>50</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S52" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -7042,13 +6662,13 @@
         <v>51</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE53" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -7056,13 +6676,13 @@
         <v>52</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -7070,13 +6690,13 @@
         <v>53</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE55" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -7084,13 +6704,13 @@
         <v>54</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE56" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -7098,13 +6718,13 @@
         <v>55</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -7112,7 +6732,7 @@
         <v>56</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S58" s="2" t="s">
         <v>269</v>
@@ -7126,13 +6746,13 @@
         <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S59" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE59" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -7140,13 +6760,13 @@
         <v>58</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE60" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -7154,13 +6774,13 @@
         <v>59</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE61" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -7168,13 +6788,13 @@
         <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -7182,13 +6802,13 @@
         <v>61</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE63" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -7196,13 +6816,13 @@
         <v>62</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S64" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE64" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -7210,13 +6830,13 @@
         <v>63</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE65" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -7224,13 +6844,13 @@
         <v>64</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE66" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -7238,13 +6858,13 @@
         <v>65</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S67" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE67" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -7252,13 +6872,13 @@
         <v>66</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S68" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE68" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -7266,13 +6886,13 @@
         <v>67</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S69" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE69" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -7280,13 +6900,13 @@
         <v>68</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S70" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -7294,13 +6914,13 @@
         <v>69</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S71" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE71" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -7308,13 +6928,13 @@
         <v>70</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S72" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE72" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -7322,13 +6942,13 @@
         <v>71</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S73" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE73" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -7336,13 +6956,13 @@
         <v>72</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE74" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -7350,7 +6970,7 @@
         <v>73</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>269</v>
@@ -7364,13 +6984,13 @@
         <v>74</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE76" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -7378,10 +6998,10 @@
         <v>75</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>269</v>
@@ -7395,13 +7015,13 @@
         <v>76</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE78" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:31">
@@ -7409,13 +7029,13 @@
         <v>77</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE79" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:31">
@@ -7423,13 +7043,13 @@
         <v>78</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE80" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:31">
@@ -7437,13 +7057,13 @@
         <v>79</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE81" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="1:31">
@@ -7451,13 +7071,13 @@
         <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE82" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:31">
@@ -7465,7 +7085,7 @@
         <v>81</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>269</v>
@@ -7479,7 +7099,7 @@
         <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>269</v>
@@ -7493,10 +7113,10 @@
         <v>83</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>269</v>
@@ -7510,13 +7130,13 @@
         <v>84</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE86" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="1:31">
@@ -7524,13 +7144,13 @@
         <v>85</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE87" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="1:31">
@@ -7538,13 +7158,13 @@
         <v>86</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="O88" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>269</v>
@@ -7558,10 +7178,10 @@
         <v>87</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>269</v>
@@ -7575,10 +7195,10 @@
         <v>88</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>269</v>
@@ -7592,7 +7212,7 @@
         <v>89</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>269</v>
@@ -7606,10 +7226,10 @@
         <v>90</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>269</v>
@@ -7623,13 +7243,13 @@
         <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE93" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:31">
@@ -7637,13 +7257,13 @@
         <v>92</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:31">
@@ -7651,13 +7271,13 @@
         <v>93</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE95" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:31">
@@ -7665,13 +7285,13 @@
         <v>94</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE96" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:31">
@@ -7679,7 +7299,7 @@
         <v>95</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>269</v>
@@ -7693,13 +7313,13 @@
         <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE98" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:31">
@@ -7707,13 +7327,13 @@
         <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE99" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:31">
@@ -7721,13 +7341,13 @@
         <v>98</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE100" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:31">
@@ -7735,13 +7355,13 @@
         <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE101" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:31">
@@ -7749,7 +7369,7 @@
         <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>269</v>
@@ -7763,13 +7383,13 @@
         <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE103" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:31">
@@ -7777,13 +7397,13 @@
         <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S104" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE104" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="1:31">
@@ -7791,7 +7411,7 @@
         <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>269</v>
@@ -7805,13 +7425,13 @@
         <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>269</v>
       </c>
       <c r="AE106" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:31">
@@ -7819,7 +7439,7 @@
         <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S107" s="2" t="s">
         <v>269</v>
@@ -7833,13 +7453,13 @@
         <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S108" s="2" t="s">
         <v>269</v>
@@ -7853,60 +7473,67 @@
         <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE109" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="S109" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE109" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="v2hpJDsnNJOHb+dnflvuQtMtKJm4oQb/8lsc2tY2iut3yOWbklMFB7sDR54AMogcXEB15YJ+DIs7uKcb2RLWLw==" saltValue="F6uvkEHItz4dfnAAARq/Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AE109" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+    <customSheetView guid="{78742338-1E85-42D5-AE40-AB93710B0000}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:Y2" xr:uid="{82F369E1-801F-4DE8-9518-8B0CAD6A67BE}"/>
+      <autoFilter ref="A2:AE109" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B139" sqref="B139"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A2:Y2" xr:uid="{5C16877F-1377-4ED4-BAD5-D0946E2121D7}"/>
+      <autoFilter ref="A2:AE137" xr:uid="{92B22157-EC0D-46FC-8F82-0026B69372FD}"/>
     </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{C0A805CE-8E4A-464E-8465-22192DA32AD3}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C337" sqref="C337"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:AE2" xr:uid="{7919F3BC-8D43-4F87-84F0-E52091D379EF}"/>
+      <autoFilter ref="A2:AE331" xr:uid="{1214539F-E1BA-4414-9B40-95225B223DBD}"/>
     </customSheetView>
     <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C120" sqref="C120"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:AE330" xr:uid="{587F5AE9-A791-47E5-939E-65EBA7EE5930}"/>
+      <autoFilter ref="A2:AE330" xr:uid="{2F4BAE7D-7B41-403A-BC3E-5BF5A94226C8}"/>
     </customSheetView>
-    <customSheetView guid="{C0A805CE-8E4A-464E-8465-22192DA32AD3}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C337" sqref="C337"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-      <autoFilter ref="A2:AE331" xr:uid="{41433EF2-C26C-4D3B-9F12-33F84AE80C15}"/>
+      <autoFilter ref="A2:AE2" xr:uid="{A381ECFB-CCE1-4E42-BC7F-DD66005CD9EB}"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B139" sqref="B139"/>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-      <autoFilter ref="A2:AE137" xr:uid="{0BB2246A-43ED-42F1-8CF5-BAAA8F5E777E}"/>
+      <autoFilter ref="A2:Y2" xr:uid="{33445441-CCAB-41CC-9EB3-9F5BDD69EDC8}"/>
+    </customSheetView>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+      <autoFilter ref="A2:Y2" xr:uid="{0900B883-820D-4115-82F9-2F96044533B7}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -7923,7 +7550,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
@@ -8047,17 +7674,17 @@
       <c r="E111" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F111" s="68" t="s">
+      <c r="F111" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="69"/>
-      <c r="J111" s="69"/>
-      <c r="K111" s="69"/>
-      <c r="L111" s="69"/>
-      <c r="M111" s="69"/>
-      <c r="N111" s="70"/>
+      <c r="G111" s="100"/>
+      <c r="H111" s="100"/>
+      <c r="I111" s="100"/>
+      <c r="J111" s="100"/>
+      <c r="K111" s="100"/>
+      <c r="L111" s="100"/>
+      <c r="M111" s="100"/>
+      <c r="N111" s="101"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
@@ -8947,7 +8574,7 @@
       <c r="A148" s="26">
         <v>1</v>
       </c>
-      <c r="B148" s="71" t="s">
+      <c r="B148" s="84" t="s">
         <v>3</v>
       </c>
       <c r="C148" s="27" t="s">
@@ -8973,7 +8600,7 @@
       <c r="A149" s="26">
         <v>2</v>
       </c>
-      <c r="B149" s="72"/>
+      <c r="B149" s="85"/>
       <c r="C149" s="28" t="s">
         <v>129</v>
       </c>
@@ -8995,7 +8622,7 @@
       <c r="A150" s="26">
         <v>3</v>
       </c>
-      <c r="B150" s="72"/>
+      <c r="B150" s="85"/>
       <c r="C150" s="28" t="s">
         <v>9</v>
       </c>
@@ -9015,7 +8642,7 @@
       <c r="A151" s="26">
         <v>4</v>
       </c>
-      <c r="B151" s="72"/>
+      <c r="B151" s="85"/>
       <c r="C151" s="28" t="s">
         <v>131</v>
       </c>
@@ -9039,7 +8666,7 @@
       <c r="A152" s="26">
         <v>5</v>
       </c>
-      <c r="B152" s="72"/>
+      <c r="B152" s="85"/>
       <c r="C152" s="27" t="s">
         <v>133</v>
       </c>
@@ -9063,7 +8690,7 @@
       <c r="A153" s="26">
         <v>6</v>
       </c>
-      <c r="B153" s="72"/>
+      <c r="B153" s="85"/>
       <c r="C153" s="27" t="s">
         <v>137</v>
       </c>
@@ -9087,7 +8714,7 @@
       <c r="A154" s="26">
         <v>7</v>
       </c>
-      <c r="B154" s="72"/>
+      <c r="B154" s="85"/>
       <c r="C154" s="28" t="s">
         <v>140</v>
       </c>
@@ -9109,7 +8736,7 @@
       <c r="A155" s="26">
         <v>8</v>
       </c>
-      <c r="B155" s="72"/>
+      <c r="B155" s="85"/>
       <c r="C155" s="27" t="s">
         <v>141</v>
       </c>
@@ -9133,7 +8760,7 @@
       <c r="A156" s="26">
         <v>9</v>
       </c>
-      <c r="B156" s="72"/>
+      <c r="B156" s="85"/>
       <c r="C156" s="27" t="s">
         <v>142</v>
       </c>
@@ -9157,7 +8784,7 @@
       <c r="A157" s="26">
         <v>10</v>
       </c>
-      <c r="B157" s="72"/>
+      <c r="B157" s="85"/>
       <c r="C157" s="28" t="s">
         <v>143</v>
       </c>
@@ -9181,7 +8808,7 @@
       <c r="A158" s="26">
         <v>11</v>
       </c>
-      <c r="B158" s="72"/>
+      <c r="B158" s="85"/>
       <c r="C158" s="28" t="s">
         <v>144</v>
       </c>
@@ -9205,7 +8832,7 @@
       <c r="A159" s="26">
         <v>12</v>
       </c>
-      <c r="B159" s="72"/>
+      <c r="B159" s="85"/>
       <c r="C159" s="28" t="s">
         <v>146</v>
       </c>
@@ -9227,7 +8854,7 @@
       <c r="A160" s="26">
         <v>13</v>
       </c>
-      <c r="B160" s="73"/>
+      <c r="B160" s="79"/>
       <c r="C160" s="28" t="s">
         <v>54</v>
       </c>
@@ -9251,7 +8878,7 @@
       <c r="A161" s="26">
         <v>14</v>
       </c>
-      <c r="B161" s="66" t="s">
+      <c r="B161" s="75" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="28" t="s">
@@ -9277,7 +8904,7 @@
       <c r="A162" s="26">
         <v>15</v>
       </c>
-      <c r="B162" s="67"/>
+      <c r="B162" s="74"/>
       <c r="C162" s="28" t="s">
         <v>154</v>
       </c>
@@ -9301,7 +8928,7 @@
       <c r="A163" s="26">
         <v>16</v>
       </c>
-      <c r="B163" s="71" t="s">
+      <c r="B163" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C163" s="28" t="s">
@@ -9325,7 +8952,7 @@
       <c r="A164" s="26">
         <v>17</v>
       </c>
-      <c r="B164" s="74"/>
+      <c r="B164" s="102"/>
       <c r="C164" s="27" t="s">
         <v>158</v>
       </c>
@@ -9347,7 +8974,7 @@
       <c r="A165" s="26">
         <v>18</v>
       </c>
-      <c r="B165" s="73"/>
+      <c r="B165" s="79"/>
       <c r="C165" s="27" t="s">
         <v>160</v>
       </c>
@@ -9367,7 +8994,7 @@
       <c r="A166" s="26">
         <v>19</v>
       </c>
-      <c r="B166" s="66" t="s">
+      <c r="B166" s="75" t="s">
         <v>6</v>
       </c>
       <c r="C166" s="28" t="s">
@@ -9391,7 +9018,7 @@
       <c r="A167" s="26">
         <v>20</v>
       </c>
-      <c r="B167" s="67"/>
+      <c r="B167" s="74"/>
       <c r="C167" s="28" t="s">
         <v>165</v>
       </c>
@@ -9411,7 +9038,7 @@
       <c r="A168" s="26">
         <v>21</v>
       </c>
-      <c r="B168" s="67"/>
+      <c r="B168" s="74"/>
       <c r="C168" s="28" t="s">
         <v>166</v>
       </c>
@@ -9431,7 +9058,7 @@
       <c r="A169" s="26">
         <v>22</v>
       </c>
-      <c r="B169" s="67"/>
+      <c r="B169" s="74"/>
       <c r="C169" s="28" t="s">
         <v>167</v>
       </c>
@@ -9451,7 +9078,7 @@
       <c r="A170" s="26">
         <v>23</v>
       </c>
-      <c r="B170" s="67"/>
+      <c r="B170" s="74"/>
       <c r="C170" s="28" t="s">
         <v>168</v>
       </c>
@@ -9471,7 +9098,7 @@
       <c r="A171" s="26">
         <v>24</v>
       </c>
-      <c r="B171" s="67"/>
+      <c r="B171" s="74"/>
       <c r="C171" s="28" t="s">
         <v>169</v>
       </c>
@@ -9491,7 +9118,7 @@
       <c r="A172" s="26">
         <v>25</v>
       </c>
-      <c r="B172" s="67"/>
+      <c r="B172" s="74"/>
       <c r="C172" s="28" t="s">
         <v>170</v>
       </c>
@@ -9511,7 +9138,7 @@
       <c r="A173" s="26">
         <v>26</v>
       </c>
-      <c r="B173" s="67"/>
+      <c r="B173" s="74"/>
       <c r="C173" s="28" t="s">
         <v>40</v>
       </c>
@@ -9531,7 +9158,7 @@
       <c r="A174" s="26">
         <v>27</v>
       </c>
-      <c r="B174" s="66" t="s">
+      <c r="B174" s="75" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="28" t="s">
@@ -9555,7 +9182,7 @@
       <c r="A175" s="26">
         <v>28</v>
       </c>
-      <c r="B175" s="67"/>
+      <c r="B175" s="74"/>
       <c r="C175" s="27" t="s">
         <v>174</v>
       </c>
@@ -9577,7 +9204,7 @@
       <c r="A176" s="26">
         <v>29</v>
       </c>
-      <c r="B176" s="67"/>
+      <c r="B176" s="74"/>
       <c r="C176" s="28" t="s">
         <v>177</v>
       </c>
@@ -9599,7 +9226,7 @@
       <c r="A177" s="26">
         <v>30</v>
       </c>
-      <c r="B177" s="71" t="s">
+      <c r="B177" s="84" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="28" t="s">
@@ -9625,7 +9252,7 @@
       <c r="A178" s="31">
         <v>31</v>
       </c>
-      <c r="B178" s="72"/>
+      <c r="B178" s="85"/>
       <c r="C178" s="32" t="s">
         <v>182</v>
       </c>
@@ -9649,7 +9276,7 @@
       <c r="A179" s="23">
         <v>32</v>
       </c>
-      <c r="B179" s="75" t="s">
+      <c r="B179" s="86" t="s">
         <v>184</v>
       </c>
       <c r="C179" s="33" t="s">
@@ -9673,7 +9300,7 @@
       <c r="A180" s="26">
         <v>33</v>
       </c>
-      <c r="B180" s="76"/>
+      <c r="B180" s="87"/>
       <c r="C180" s="27" t="s">
         <v>188</v>
       </c>
@@ -9695,7 +9322,7 @@
       <c r="A181" s="26">
         <v>34</v>
       </c>
-      <c r="B181" s="77"/>
+      <c r="B181" s="88"/>
       <c r="C181" s="34" t="s">
         <v>191</v>
       </c>
@@ -9717,7 +9344,7 @@
       <c r="A182" s="31">
         <v>35</v>
       </c>
-      <c r="B182" s="77"/>
+      <c r="B182" s="88"/>
       <c r="C182" s="34" t="s">
         <v>192</v>
       </c>
@@ -9739,7 +9366,7 @@
       <c r="A183" s="31">
         <v>36</v>
       </c>
-      <c r="B183" s="77"/>
+      <c r="B183" s="88"/>
       <c r="C183" s="34" t="s">
         <v>195</v>
       </c>
@@ -9759,7 +9386,7 @@
       <c r="A184" s="31">
         <v>37</v>
       </c>
-      <c r="B184" s="77"/>
+      <c r="B184" s="88"/>
       <c r="C184" s="34" t="s">
         <v>247</v>
       </c>
@@ -9781,7 +9408,7 @@
       <c r="A185" s="35">
         <v>38</v>
       </c>
-      <c r="B185" s="78"/>
+      <c r="B185" s="83"/>
       <c r="C185" s="36" t="s">
         <v>251</v>
       </c>
@@ -9832,11 +9459,11 @@
       <c r="B199" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="C199" s="79" t="s">
+      <c r="C199" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="79"/>
-      <c r="E199" s="79"/>
+      <c r="D199" s="89"/>
+      <c r="E199" s="89"/>
       <c r="F199" s="37" t="s">
         <v>41</v>
       </c>
@@ -9845,17 +9472,17 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="80" t="s">
+      <c r="A200" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="67" t="s">
+      <c r="B200" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="C200" s="82" t="s">
+      <c r="C200" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="D200" s="83"/>
-      <c r="E200" s="83"/>
+      <c r="D200" s="92"/>
+      <c r="E200" s="92"/>
       <c r="F200" s="28" t="s">
         <v>207</v>
       </c>
@@ -9864,13 +9491,13 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="80"/>
-      <c r="B201" s="81"/>
-      <c r="C201" s="84" t="s">
+      <c r="A201" s="72"/>
+      <c r="B201" s="90"/>
+      <c r="C201" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D201" s="85"/>
-      <c r="E201" s="85"/>
+      <c r="D201" s="94"/>
+      <c r="E201" s="94"/>
       <c r="F201" s="32" t="s">
         <v>208</v>
       </c>
@@ -9879,15 +9506,15 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="80"/>
-      <c r="B202" s="67" t="s">
+      <c r="A202" s="72"/>
+      <c r="B202" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="C202" s="86" t="s">
+      <c r="C202" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="D202" s="86"/>
-      <c r="E202" s="86"/>
+      <c r="D202" s="95"/>
+      <c r="E202" s="95"/>
       <c r="F202" s="28" t="s">
         <v>207</v>
       </c>
@@ -9896,13 +9523,13 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="80"/>
-      <c r="B203" s="67"/>
-      <c r="C203" s="84" t="s">
+      <c r="A203" s="72"/>
+      <c r="B203" s="74"/>
+      <c r="C203" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="D203" s="84"/>
-      <c r="E203" s="84"/>
+      <c r="D203" s="93"/>
+      <c r="E203" s="93"/>
       <c r="F203" s="28" t="s">
         <v>208</v>
       </c>
@@ -9911,15 +9538,15 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="80"/>
-      <c r="B204" s="81" t="s">
+      <c r="A204" s="72"/>
+      <c r="B204" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="C204" s="87" t="s">
+      <c r="C204" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D204" s="88"/>
-      <c r="E204" s="89"/>
+      <c r="D204" s="97"/>
+      <c r="E204" s="98"/>
       <c r="F204" s="28" t="s">
         <v>207</v>
       </c>
@@ -9928,13 +9555,13 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="80"/>
-      <c r="B205" s="73"/>
-      <c r="C205" s="87" t="s">
+      <c r="A205" s="72"/>
+      <c r="B205" s="79"/>
+      <c r="C205" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D205" s="88"/>
-      <c r="E205" s="89"/>
+      <c r="D205" s="97"/>
+      <c r="E205" s="98"/>
       <c r="F205" s="28" t="s">
         <v>208</v>
       </c>
@@ -9943,15 +9570,15 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="80"/>
-      <c r="B206" s="67" t="s">
+      <c r="A206" s="72"/>
+      <c r="B206" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="C206" s="86" t="s">
+      <c r="C206" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="D206" s="86"/>
-      <c r="E206" s="86"/>
+      <c r="D206" s="95"/>
+      <c r="E206" s="95"/>
       <c r="F206" s="28" t="s">
         <v>207</v>
       </c>
@@ -9960,13 +9587,13 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="80"/>
-      <c r="B207" s="67"/>
-      <c r="C207" s="86" t="s">
+      <c r="A207" s="72"/>
+      <c r="B207" s="74"/>
+      <c r="C207" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="D207" s="86"/>
-      <c r="E207" s="86"/>
+      <c r="D207" s="95"/>
+      <c r="E207" s="95"/>
       <c r="F207" s="28" t="s">
         <v>208</v>
       </c>
@@ -9975,17 +9602,17 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="80" t="s">
+      <c r="A208" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="B208" s="67" t="s">
+      <c r="B208" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="C208" s="66" t="s">
+      <c r="C208" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D208" s="67"/>
-      <c r="E208" s="67"/>
+      <c r="D208" s="74"/>
+      <c r="E208" s="74"/>
       <c r="F208" s="28" t="s">
         <v>207</v>
       </c>
@@ -9994,13 +9621,13 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="80"/>
-      <c r="B209" s="67"/>
-      <c r="C209" s="67" t="s">
+      <c r="A209" s="72"/>
+      <c r="B209" s="74"/>
+      <c r="C209" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D209" s="67"/>
-      <c r="E209" s="67"/>
+      <c r="D209" s="74"/>
+      <c r="E209" s="74"/>
       <c r="F209" s="28" t="s">
         <v>208</v>
       </c>
@@ -10009,15 +9636,15 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="80"/>
-      <c r="B210" s="67" t="s">
+      <c r="A210" s="72"/>
+      <c r="B210" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="C210" s="67" t="s">
+      <c r="C210" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D210" s="67"/>
-      <c r="E210" s="67"/>
+      <c r="D210" s="74"/>
+      <c r="E210" s="74"/>
       <c r="F210" s="28" t="s">
         <v>207</v>
       </c>
@@ -10026,13 +9653,13 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="80"/>
-      <c r="B211" s="67"/>
-      <c r="C211" s="67" t="s">
+      <c r="A211" s="72"/>
+      <c r="B211" s="74"/>
+      <c r="C211" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="D211" s="67"/>
-      <c r="E211" s="67"/>
+      <c r="D211" s="74"/>
+      <c r="E211" s="74"/>
       <c r="F211" s="28" t="s">
         <v>208</v>
       </c>
@@ -10041,17 +9668,17 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="80" t="s">
+      <c r="A212" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="B212" s="67" t="s">
+      <c r="B212" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="C212" s="66" t="s">
+      <c r="C212" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D212" s="67"/>
-      <c r="E212" s="67"/>
+      <c r="D212" s="74"/>
+      <c r="E212" s="74"/>
       <c r="F212" s="28" t="s">
         <v>207</v>
       </c>
@@ -10060,13 +9687,13 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="80"/>
-      <c r="B213" s="67"/>
-      <c r="C213" s="67" t="s">
+      <c r="A213" s="72"/>
+      <c r="B213" s="74"/>
+      <c r="C213" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D213" s="67"/>
-      <c r="E213" s="67"/>
+      <c r="D213" s="74"/>
+      <c r="E213" s="74"/>
       <c r="F213" s="28" t="s">
         <v>208</v>
       </c>
@@ -10075,15 +9702,15 @@
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="80"/>
-      <c r="B214" s="67" t="s">
+      <c r="A214" s="72"/>
+      <c r="B214" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="C214" s="66" t="s">
+      <c r="C214" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="D214" s="67"/>
-      <c r="E214" s="67"/>
+      <c r="D214" s="74"/>
+      <c r="E214" s="74"/>
       <c r="F214" s="28" t="s">
         <v>207</v>
       </c>
@@ -10092,13 +9719,13 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A215" s="91"/>
-      <c r="B215" s="92"/>
-      <c r="C215" s="92" t="s">
+      <c r="A215" s="73"/>
+      <c r="B215" s="76"/>
+      <c r="C215" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="D215" s="92"/>
-      <c r="E215" s="92"/>
+      <c r="D215" s="76"/>
+      <c r="E215" s="76"/>
       <c r="F215" s="36" t="s">
         <v>208</v>
       </c>
@@ -10120,12 +9747,12 @@
       <c r="A220" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B220" s="93" t="s">
+      <c r="B220" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C220" s="93"/>
-      <c r="D220" s="93"/>
-      <c r="E220" s="93"/>
+      <c r="C220" s="77"/>
+      <c r="D220" s="77"/>
+      <c r="E220" s="77"/>
       <c r="F220" s="43" t="s">
         <v>226</v>
       </c>
@@ -10137,12 +9764,12 @@
       <c r="A221" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B221" s="94" t="s">
+      <c r="B221" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="C221" s="73"/>
-      <c r="D221" s="73"/>
-      <c r="E221" s="73"/>
+      <c r="C221" s="79"/>
+      <c r="D221" s="79"/>
+      <c r="E221" s="79"/>
       <c r="F221" s="46" t="s">
         <v>104</v>
       </c>
@@ -10154,12 +9781,12 @@
       <c r="A222" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B222" s="95" t="s">
+      <c r="B222" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="C222" s="96"/>
-      <c r="D222" s="96"/>
-      <c r="E222" s="97"/>
+      <c r="C222" s="81"/>
+      <c r="D222" s="81"/>
+      <c r="E222" s="82"/>
       <c r="F222" s="15" t="s">
         <v>61</v>
       </c>
@@ -10171,12 +9798,12 @@
       <c r="A223" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B223" s="95" t="s">
+      <c r="B223" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="C223" s="96"/>
-      <c r="D223" s="96"/>
-      <c r="E223" s="97"/>
+      <c r="C223" s="81"/>
+      <c r="D223" s="81"/>
+      <c r="E223" s="82"/>
       <c r="F223" s="18" t="s">
         <v>61</v>
       </c>
@@ -10188,12 +9815,12 @@
       <c r="A224" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B224" s="78" t="s">
+      <c r="B224" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="C224" s="92"/>
-      <c r="D224" s="92"/>
-      <c r="E224" s="92"/>
+      <c r="C224" s="76"/>
+      <c r="D224" s="76"/>
+      <c r="E224" s="76"/>
       <c r="F224" s="21" t="s">
         <v>61</v>
       </c>
@@ -10238,11 +9865,11 @@
       <c r="C229" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D229" s="90" t="s">
+      <c r="D229" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="E229" s="90"/>
-      <c r="F229" s="90"/>
+      <c r="E229" s="71"/>
+      <c r="F229" s="71"/>
       <c r="G229" s="25"/>
     </row>
     <row r="230" spans="1:7">
@@ -10255,11 +9882,11 @@
       <c r="C230" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D230" s="102" t="s">
+      <c r="D230" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E230" s="102"/>
-      <c r="F230" s="102"/>
+      <c r="E230" s="70"/>
+      <c r="F230" s="70"/>
       <c r="G230" s="39"/>
     </row>
     <row r="231" spans="1:7">
@@ -10272,11 +9899,11 @@
       <c r="C231" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D231" s="102" t="s">
+      <c r="D231" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="E231" s="102"/>
-      <c r="F231" s="102"/>
+      <c r="E231" s="70"/>
+      <c r="F231" s="70"/>
       <c r="G231" s="39"/>
     </row>
     <row r="232" spans="1:7">
@@ -10289,11 +9916,11 @@
       <c r="C232" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D232" s="102" t="s">
+      <c r="D232" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="E232" s="102"/>
-      <c r="F232" s="102"/>
+      <c r="E232" s="70"/>
+      <c r="F232" s="70"/>
       <c r="G232" s="39"/>
     </row>
     <row r="233" spans="1:7">
@@ -10306,11 +9933,11 @@
       <c r="C233" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D233" s="102" t="s">
+      <c r="D233" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="E233" s="102"/>
-      <c r="F233" s="102"/>
+      <c r="E233" s="70"/>
+      <c r="F233" s="70"/>
       <c r="G233" s="39"/>
     </row>
     <row r="234" spans="1:7">
@@ -10323,11 +9950,11 @@
       <c r="C234" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D234" s="102" t="s">
+      <c r="D234" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="E234" s="102"/>
-      <c r="F234" s="102"/>
+      <c r="E234" s="70"/>
+      <c r="F234" s="70"/>
       <c r="G234" s="39"/>
     </row>
     <row r="235" spans="1:7">
@@ -10340,11 +9967,11 @@
       <c r="C235" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D235" s="98" t="s">
+      <c r="D235" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E235" s="99"/>
-      <c r="F235" s="100"/>
+      <c r="E235" s="67"/>
+      <c r="F235" s="68"/>
       <c r="G235" s="40"/>
     </row>
     <row r="236" spans="1:7">
@@ -10357,11 +9984,11 @@
       <c r="C236" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D236" s="98" t="s">
+      <c r="D236" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="E236" s="99"/>
-      <c r="F236" s="100"/>
+      <c r="E236" s="67"/>
+      <c r="F236" s="68"/>
       <c r="G236" s="40"/>
     </row>
     <row r="237" spans="1:7">
@@ -10374,11 +10001,11 @@
       <c r="C237" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D237" s="98" t="s">
+      <c r="D237" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E237" s="99"/>
-      <c r="F237" s="100"/>
+      <c r="E237" s="67"/>
+      <c r="F237" s="68"/>
       <c r="G237" s="40"/>
     </row>
     <row r="238" spans="1:7">
@@ -10476,17 +10103,27 @@
       <c r="C243" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D243" s="101" t="s">
+      <c r="D243" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="E243" s="101"/>
-      <c r="F243" s="101"/>
+      <c r="E243" s="69"/>
+      <c r="F243" s="69"/>
       <c r="G243" s="41"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="dSSGbMlehNtWlIHSSfftCqUMab+Sb0hooxQMUpoStERkR2/XS3ERiPNaNXV+uIt5I/NGfmkjhmoCMOi5hOXKdQ==" saltValue="4j3/9e0Khi55FR2zrD17vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="115">
+    <customSheetView guid="{78742338-1E85-42D5-AE40-AB93710B0000}" scale="115">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{C0A805CE-8E4A-464E-8465-22192DA32AD3}" scale="115">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
@@ -10496,47 +10133,19 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{C0A805CE-8E4A-464E-8465-22192DA32AD3}" scale="115">
-      <selection activeCell="C4" sqref="C4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115">
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" scale="115">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
-    <mergeCell ref="D235:F235"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:E214"/>
-    <mergeCell ref="C215:E215"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="A208:A211"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="B148:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B166:B173"/>
     <mergeCell ref="B177:B178"/>
     <mergeCell ref="B179:B185"/>
     <mergeCell ref="C199:E199"/>
@@ -10553,12 +10162,35 @@
     <mergeCell ref="B206:B207"/>
     <mergeCell ref="C206:E206"/>
     <mergeCell ref="C207:E207"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="B148:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="B166:B173"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:E214"/>
+    <mergeCell ref="C215:E215"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="D235:F235"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10577,19 +10209,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
+    <customSheetView guid="{78742338-1E85-42D5-AE40-AB93710B0000}" topLeftCell="D10">
+      <selection activeCell="J8" sqref="J8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="E26" sqref="E26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" topLeftCell="D295">
-      <selection activeCell="A4" sqref="A4:AE331"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" topLeftCell="D10">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" topLeftCell="D10">
       <selection activeCell="J8" sqref="J8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -10597,8 +10221,20 @@
       <selection activeCell="J8" sqref="J8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" topLeftCell="D10">
+    <customSheetView guid="{4BA09E17-24A5-4F6D-8CB6-7B3DF9B00FDE}" topLeftCell="D10">
       <selection activeCell="J8" sqref="J8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{1F35143E-328B-4EDC-927C-C18A57070EA0}" topLeftCell="D295">
+      <selection activeCell="A4" sqref="A4:AE331"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="E26" sqref="E26"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
